--- a/SEM2-HOURS.xlsx
+++ b/SEM2-HOURS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA344"/>
+  <dimension ref="A1:AB344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,11 @@
           <t>Seva Utsav Management Team</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Climate_Conclave</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -648,6 +653,9 @@
       <c r="AA2" t="n">
         <v>90</v>
       </c>
+      <c r="AB2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -735,6 +743,9 @@
       <c r="AA3" t="n">
         <v>0</v>
       </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -822,6 +833,9 @@
       <c r="AA4" t="n">
         <v>0</v>
       </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -907,6 +921,9 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -996,6 +1013,9 @@
       <c r="AA6" t="n">
         <v>0</v>
       </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1083,6 +1103,9 @@
       <c r="AA7" t="n">
         <v>0</v>
       </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1170,6 +1193,9 @@
       <c r="AA8" t="n">
         <v>0</v>
       </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1257,6 +1283,9 @@
       <c r="AA9" t="n">
         <v>0</v>
       </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1344,6 +1373,9 @@
       <c r="AA10" t="n">
         <v>0</v>
       </c>
+      <c r="AB10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1431,6 +1463,9 @@
       <c r="AA11" t="n">
         <v>0</v>
       </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1518,6 +1553,9 @@
       <c r="AA12" t="n">
         <v>0</v>
       </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1605,6 +1643,9 @@
       <c r="AA13" t="n">
         <v>0</v>
       </c>
+      <c r="AB13" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1692,6 +1733,9 @@
       <c r="AA14" t="n">
         <v>0</v>
       </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1779,6 +1823,9 @@
       <c r="AA15" t="n">
         <v>0</v>
       </c>
+      <c r="AB15" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1866,6 +1913,9 @@
       <c r="AA16" t="n">
         <v>0</v>
       </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1953,6 +2003,9 @@
       <c r="AA17" t="n">
         <v>0</v>
       </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2040,6 +2093,9 @@
       <c r="AA18" t="n">
         <v>0</v>
       </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2127,6 +2183,9 @@
       <c r="AA19" t="n">
         <v>0</v>
       </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2214,6 +2273,9 @@
       <c r="AA20" t="n">
         <v>0</v>
       </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2301,6 +2363,9 @@
       <c r="AA21" t="n">
         <v>0</v>
       </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2388,6 +2453,9 @@
       <c r="AA22" t="n">
         <v>0</v>
       </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2475,6 +2543,9 @@
       <c r="AA23" t="n">
         <v>0</v>
       </c>
+      <c r="AB23" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2562,6 +2633,9 @@
       <c r="AA24" t="n">
         <v>0</v>
       </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2649,6 +2723,9 @@
       <c r="AA25" t="n">
         <v>0</v>
       </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2736,6 +2813,9 @@
       <c r="AA26" t="n">
         <v>0</v>
       </c>
+      <c r="AB26" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2823,6 +2903,9 @@
       <c r="AA27" t="n">
         <v>0</v>
       </c>
+      <c r="AB27" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2910,6 +2993,9 @@
       <c r="AA28" t="n">
         <v>0</v>
       </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2997,6 +3083,9 @@
       <c r="AA29" t="n">
         <v>0</v>
       </c>
+      <c r="AB29" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3084,6 +3173,9 @@
       <c r="AA30" t="n">
         <v>0</v>
       </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3171,6 +3263,9 @@
       <c r="AA31" t="n">
         <v>0</v>
       </c>
+      <c r="AB31" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3258,6 +3353,9 @@
       <c r="AA32" t="n">
         <v>0</v>
       </c>
+      <c r="AB32" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3345,6 +3443,9 @@
       <c r="AA33" t="n">
         <v>0</v>
       </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3432,6 +3533,9 @@
       <c r="AA34" t="n">
         <v>0</v>
       </c>
+      <c r="AB34" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3519,6 +3623,9 @@
       <c r="AA35" t="n">
         <v>0</v>
       </c>
+      <c r="AB35" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3606,6 +3713,9 @@
       <c r="AA36" t="n">
         <v>0</v>
       </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3693,6 +3803,9 @@
       <c r="AA37" t="n">
         <v>90</v>
       </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3780,6 +3893,9 @@
       <c r="AA38" t="n">
         <v>0</v>
       </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3867,6 +3983,9 @@
       <c r="AA39" t="n">
         <v>0</v>
       </c>
+      <c r="AB39" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3954,6 +4073,9 @@
       <c r="AA40" t="n">
         <v>0</v>
       </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4041,6 +4163,9 @@
       <c r="AA41" t="n">
         <v>0</v>
       </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4128,6 +4253,9 @@
       <c r="AA42" t="n">
         <v>0</v>
       </c>
+      <c r="AB42" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4215,6 +4343,9 @@
       <c r="AA43" t="n">
         <v>0</v>
       </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4302,6 +4433,9 @@
       <c r="AA44" t="n">
         <v>90</v>
       </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4389,6 +4523,9 @@
       <c r="AA45" t="n">
         <v>0</v>
       </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4476,6 +4613,9 @@
       <c r="AA46" t="n">
         <v>0</v>
       </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4563,6 +4703,9 @@
       <c r="AA47" t="n">
         <v>0</v>
       </c>
+      <c r="AB47" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4650,6 +4793,9 @@
       <c r="AA48" t="n">
         <v>90</v>
       </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4737,6 +4883,9 @@
       <c r="AA49" t="n">
         <v>0</v>
       </c>
+      <c r="AB49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4824,6 +4973,9 @@
       <c r="AA50" t="n">
         <v>0</v>
       </c>
+      <c r="AB50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4911,6 +5063,9 @@
       <c r="AA51" t="n">
         <v>0</v>
       </c>
+      <c r="AB51" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4998,6 +5153,9 @@
       <c r="AA52" t="n">
         <v>0</v>
       </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5085,6 +5243,9 @@
       <c r="AA53" t="n">
         <v>0</v>
       </c>
+      <c r="AB53" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5172,6 +5333,9 @@
       <c r="AA54" t="n">
         <v>0</v>
       </c>
+      <c r="AB54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5259,6 +5423,9 @@
       <c r="AA55" t="n">
         <v>0</v>
       </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5346,6 +5513,9 @@
       <c r="AA56" t="n">
         <v>0</v>
       </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5433,6 +5603,9 @@
       <c r="AA57" t="n">
         <v>0</v>
       </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5520,6 +5693,9 @@
       <c r="AA58" t="n">
         <v>0</v>
       </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5607,6 +5783,9 @@
       <c r="AA59" t="n">
         <v>0</v>
       </c>
+      <c r="AB59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5694,6 +5873,9 @@
       <c r="AA60" t="n">
         <v>0</v>
       </c>
+      <c r="AB60" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5781,6 +5963,9 @@
       <c r="AA61" t="n">
         <v>0</v>
       </c>
+      <c r="AB61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5868,6 +6053,9 @@
       <c r="AA62" t="n">
         <v>0</v>
       </c>
+      <c r="AB62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5955,6 +6143,9 @@
       <c r="AA63" t="n">
         <v>0</v>
       </c>
+      <c r="AB63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6042,6 +6233,9 @@
       <c r="AA64" t="n">
         <v>0</v>
       </c>
+      <c r="AB64" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6129,6 +6323,9 @@
       <c r="AA65" t="n">
         <v>0</v>
       </c>
+      <c r="AB65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6216,6 +6413,9 @@
       <c r="AA66" t="n">
         <v>0</v>
       </c>
+      <c r="AB66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6303,6 +6503,9 @@
       <c r="AA67" t="n">
         <v>0</v>
       </c>
+      <c r="AB67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -6390,6 +6593,9 @@
       <c r="AA68" t="n">
         <v>0</v>
       </c>
+      <c r="AB68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -6477,6 +6683,9 @@
       <c r="AA69" t="n">
         <v>0</v>
       </c>
+      <c r="AB69" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -6564,6 +6773,9 @@
       <c r="AA70" t="n">
         <v>0</v>
       </c>
+      <c r="AB70" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -6651,6 +6863,9 @@
       <c r="AA71" t="n">
         <v>0</v>
       </c>
+      <c r="AB71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -6738,6 +6953,9 @@
       <c r="AA72" t="n">
         <v>0</v>
       </c>
+      <c r="AB72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -6825,6 +7043,9 @@
       <c r="AA73" t="n">
         <v>0</v>
       </c>
+      <c r="AB73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -6912,6 +7133,9 @@
       <c r="AA74" t="n">
         <v>0</v>
       </c>
+      <c r="AB74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -6999,6 +7223,9 @@
       <c r="AA75" t="n">
         <v>0</v>
       </c>
+      <c r="AB75" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -7086,6 +7313,9 @@
       <c r="AA76" t="n">
         <v>0</v>
       </c>
+      <c r="AB76" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -7173,6 +7403,9 @@
       <c r="AA77" t="n">
         <v>0</v>
       </c>
+      <c r="AB77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -7260,6 +7493,9 @@
       <c r="AA78" t="n">
         <v>0</v>
       </c>
+      <c r="AB78" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -7347,6 +7583,9 @@
       <c r="AA79" t="n">
         <v>0</v>
       </c>
+      <c r="AB79" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -7434,6 +7673,9 @@
       <c r="AA80" t="n">
         <v>0</v>
       </c>
+      <c r="AB80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -7521,6 +7763,9 @@
       <c r="AA81" t="n">
         <v>0</v>
       </c>
+      <c r="AB81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -7608,6 +7853,9 @@
       <c r="AA82" t="n">
         <v>0</v>
       </c>
+      <c r="AB82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -7695,6 +7943,9 @@
       <c r="AA83" t="n">
         <v>0</v>
       </c>
+      <c r="AB83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -7782,6 +8033,9 @@
       <c r="AA84" t="n">
         <v>0</v>
       </c>
+      <c r="AB84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -7869,6 +8123,9 @@
       <c r="AA85" t="n">
         <v>90</v>
       </c>
+      <c r="AB85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -7956,6 +8213,9 @@
       <c r="AA86" t="n">
         <v>0</v>
       </c>
+      <c r="AB86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -8043,6 +8303,9 @@
       <c r="AA87" t="n">
         <v>0</v>
       </c>
+      <c r="AB87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -8130,6 +8393,9 @@
       <c r="AA88" t="n">
         <v>90</v>
       </c>
+      <c r="AB88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -8217,6 +8483,9 @@
       <c r="AA89" t="n">
         <v>0</v>
       </c>
+      <c r="AB89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -8304,6 +8573,9 @@
       <c r="AA90" t="n">
         <v>0</v>
       </c>
+      <c r="AB90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -8391,6 +8663,9 @@
       <c r="AA91" t="n">
         <v>0</v>
       </c>
+      <c r="AB91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -8478,6 +8753,9 @@
       <c r="AA92" t="n">
         <v>0</v>
       </c>
+      <c r="AB92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -8565,6 +8843,9 @@
       <c r="AA93" t="n">
         <v>0</v>
       </c>
+      <c r="AB93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -8652,6 +8933,9 @@
       <c r="AA94" t="n">
         <v>0</v>
       </c>
+      <c r="AB94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -8739,6 +9023,9 @@
       <c r="AA95" t="n">
         <v>0</v>
       </c>
+      <c r="AB95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -8826,6 +9113,9 @@
       <c r="AA96" t="n">
         <v>0</v>
       </c>
+      <c r="AB96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -8913,6 +9203,9 @@
       <c r="AA97" t="n">
         <v>0</v>
       </c>
+      <c r="AB97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -9000,6 +9293,9 @@
       <c r="AA98" t="n">
         <v>0</v>
       </c>
+      <c r="AB98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -9087,6 +9383,9 @@
       <c r="AA99" t="n">
         <v>0</v>
       </c>
+      <c r="AB99" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -9174,6 +9473,9 @@
       <c r="AA100" t="n">
         <v>0</v>
       </c>
+      <c r="AB100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -9261,6 +9563,9 @@
       <c r="AA101" t="n">
         <v>0</v>
       </c>
+      <c r="AB101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -9348,6 +9653,9 @@
       <c r="AA102" t="n">
         <v>0</v>
       </c>
+      <c r="AB102" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -9435,6 +9743,9 @@
       <c r="AA103" t="n">
         <v>0</v>
       </c>
+      <c r="AB103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -9522,6 +9833,9 @@
       <c r="AA104" t="n">
         <v>0</v>
       </c>
+      <c r="AB104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -9609,6 +9923,9 @@
       <c r="AA105" t="n">
         <v>0</v>
       </c>
+      <c r="AB105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -9696,6 +10013,9 @@
       <c r="AA106" t="n">
         <v>0</v>
       </c>
+      <c r="AB106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -9783,6 +10103,9 @@
       <c r="AA107" t="n">
         <v>0</v>
       </c>
+      <c r="AB107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -9870,6 +10193,9 @@
       <c r="AA108" t="n">
         <v>0</v>
       </c>
+      <c r="AB108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -9957,6 +10283,9 @@
       <c r="AA109" t="n">
         <v>0</v>
       </c>
+      <c r="AB109" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -10044,6 +10373,9 @@
       <c r="AA110" t="n">
         <v>0</v>
       </c>
+      <c r="AB110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -10131,6 +10463,9 @@
       <c r="AA111" t="n">
         <v>0</v>
       </c>
+      <c r="AB111" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -10218,6 +10553,9 @@
       <c r="AA112" t="n">
         <v>0</v>
       </c>
+      <c r="AB112" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -10305,6 +10643,9 @@
       <c r="AA113" t="n">
         <v>0</v>
       </c>
+      <c r="AB113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -10392,6 +10733,9 @@
       <c r="AA114" t="n">
         <v>0</v>
       </c>
+      <c r="AB114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -10479,6 +10823,9 @@
       <c r="AA115" t="n">
         <v>0</v>
       </c>
+      <c r="AB115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -10566,6 +10913,9 @@
       <c r="AA116" t="n">
         <v>0</v>
       </c>
+      <c r="AB116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -10653,6 +11003,9 @@
       <c r="AA117" t="n">
         <v>0</v>
       </c>
+      <c r="AB117" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -10740,6 +11093,9 @@
       <c r="AA118" t="n">
         <v>0</v>
       </c>
+      <c r="AB118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -10827,6 +11183,9 @@
       <c r="AA119" t="n">
         <v>0</v>
       </c>
+      <c r="AB119" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -10914,6 +11273,9 @@
       <c r="AA120" t="n">
         <v>0</v>
       </c>
+      <c r="AB120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -11001,6 +11363,9 @@
       <c r="AA121" t="n">
         <v>0</v>
       </c>
+      <c r="AB121" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -11088,6 +11453,9 @@
       <c r="AA122" t="n">
         <v>0</v>
       </c>
+      <c r="AB122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -11175,6 +11543,9 @@
       <c r="AA123" t="n">
         <v>0</v>
       </c>
+      <c r="AB123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -11262,6 +11633,9 @@
       <c r="AA124" t="n">
         <v>0</v>
       </c>
+      <c r="AB124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -11349,6 +11723,9 @@
       <c r="AA125" t="n">
         <v>0</v>
       </c>
+      <c r="AB125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -11436,6 +11813,9 @@
       <c r="AA126" t="n">
         <v>0</v>
       </c>
+      <c r="AB126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -11523,6 +11903,9 @@
       <c r="AA127" t="n">
         <v>0</v>
       </c>
+      <c r="AB127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -11610,6 +11993,9 @@
       <c r="AA128" t="n">
         <v>0</v>
       </c>
+      <c r="AB128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -11697,6 +12083,9 @@
       <c r="AA129" t="n">
         <v>0</v>
       </c>
+      <c r="AB129" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -11784,6 +12173,9 @@
       <c r="AA130" t="n">
         <v>0</v>
       </c>
+      <c r="AB130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -11871,6 +12263,9 @@
       <c r="AA131" t="n">
         <v>0</v>
       </c>
+      <c r="AB131" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -11958,6 +12353,9 @@
       <c r="AA132" t="n">
         <v>0</v>
       </c>
+      <c r="AB132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -12045,6 +12443,9 @@
       <c r="AA133" t="n">
         <v>0</v>
       </c>
+      <c r="AB133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -12132,6 +12533,9 @@
       <c r="AA134" t="n">
         <v>90</v>
       </c>
+      <c r="AB134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -12219,6 +12623,9 @@
       <c r="AA135" t="n">
         <v>0</v>
       </c>
+      <c r="AB135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -12306,6 +12713,9 @@
       <c r="AA136" t="n">
         <v>0</v>
       </c>
+      <c r="AB136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -12393,6 +12803,9 @@
       <c r="AA137" t="n">
         <v>0</v>
       </c>
+      <c r="AB137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -12480,6 +12893,9 @@
       <c r="AA138" t="n">
         <v>0</v>
       </c>
+      <c r="AB138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -12567,6 +12983,9 @@
       <c r="AA139" t="n">
         <v>0</v>
       </c>
+      <c r="AB139" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -12654,6 +13073,9 @@
       <c r="AA140" t="n">
         <v>0</v>
       </c>
+      <c r="AB140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -12741,6 +13163,9 @@
       <c r="AA141" t="n">
         <v>0</v>
       </c>
+      <c r="AB141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -12828,6 +13253,9 @@
       <c r="AA142" t="n">
         <v>0</v>
       </c>
+      <c r="AB142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -12915,6 +13343,9 @@
       <c r="AA143" t="n">
         <v>0</v>
       </c>
+      <c r="AB143" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -13002,6 +13433,9 @@
       <c r="AA144" t="n">
         <v>0</v>
       </c>
+      <c r="AB144" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -13089,6 +13523,9 @@
       <c r="AA145" t="n">
         <v>0</v>
       </c>
+      <c r="AB145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -13176,6 +13613,9 @@
       <c r="AA146" t="n">
         <v>0</v>
       </c>
+      <c r="AB146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -13263,6 +13703,9 @@
       <c r="AA147" t="n">
         <v>0</v>
       </c>
+      <c r="AB147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -13350,6 +13793,9 @@
       <c r="AA148" t="n">
         <v>0</v>
       </c>
+      <c r="AB148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -13437,6 +13883,9 @@
       <c r="AA149" t="n">
         <v>0</v>
       </c>
+      <c r="AB149" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -13524,6 +13973,9 @@
       <c r="AA150" t="n">
         <v>0</v>
       </c>
+      <c r="AB150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -13611,6 +14063,9 @@
       <c r="AA151" t="n">
         <v>0</v>
       </c>
+      <c r="AB151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -13698,6 +14153,9 @@
       <c r="AA152" t="n">
         <v>0</v>
       </c>
+      <c r="AB152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -13785,6 +14243,9 @@
       <c r="AA153" t="n">
         <v>0</v>
       </c>
+      <c r="AB153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -13872,6 +14333,9 @@
       <c r="AA154" t="n">
         <v>0</v>
       </c>
+      <c r="AB154" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -13959,6 +14423,9 @@
       <c r="AA155" t="n">
         <v>0</v>
       </c>
+      <c r="AB155" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -14046,6 +14513,9 @@
       <c r="AA156" t="n">
         <v>0</v>
       </c>
+      <c r="AB156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -14133,6 +14603,9 @@
       <c r="AA157" t="n">
         <v>0</v>
       </c>
+      <c r="AB157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -14220,6 +14693,9 @@
       <c r="AA158" t="n">
         <v>0</v>
       </c>
+      <c r="AB158" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -14307,6 +14783,9 @@
       <c r="AA159" t="n">
         <v>0</v>
       </c>
+      <c r="AB159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -14394,6 +14873,9 @@
       <c r="AA160" t="n">
         <v>0</v>
       </c>
+      <c r="AB160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -14481,6 +14963,9 @@
       <c r="AA161" t="n">
         <v>0</v>
       </c>
+      <c r="AB161" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -14568,6 +15053,9 @@
       <c r="AA162" t="n">
         <v>0</v>
       </c>
+      <c r="AB162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -14655,6 +15143,9 @@
       <c r="AA163" t="n">
         <v>0</v>
       </c>
+      <c r="AB163" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -14742,6 +15233,9 @@
       <c r="AA164" t="n">
         <v>0</v>
       </c>
+      <c r="AB164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -14829,6 +15323,9 @@
       <c r="AA165" t="n">
         <v>0</v>
       </c>
+      <c r="AB165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -14916,6 +15413,9 @@
       <c r="AA166" t="n">
         <v>0</v>
       </c>
+      <c r="AB166" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -15003,6 +15503,9 @@
       <c r="AA167" t="n">
         <v>0</v>
       </c>
+      <c r="AB167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -15090,6 +15593,9 @@
       <c r="AA168" t="n">
         <v>0</v>
       </c>
+      <c r="AB168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -15177,6 +15683,9 @@
       <c r="AA169" t="n">
         <v>0</v>
       </c>
+      <c r="AB169" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -15264,6 +15773,9 @@
       <c r="AA170" t="n">
         <v>0</v>
       </c>
+      <c r="AB170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -15351,6 +15863,9 @@
       <c r="AA171" t="n">
         <v>0</v>
       </c>
+      <c r="AB171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -15438,6 +15953,9 @@
       <c r="AA172" t="n">
         <v>0</v>
       </c>
+      <c r="AB172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -15525,6 +16043,9 @@
       <c r="AA173" t="n">
         <v>0</v>
       </c>
+      <c r="AB173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -15612,6 +16133,9 @@
       <c r="AA174" t="n">
         <v>0</v>
       </c>
+      <c r="AB174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -15699,6 +16223,9 @@
       <c r="AA175" t="n">
         <v>0</v>
       </c>
+      <c r="AB175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -15786,6 +16313,9 @@
       <c r="AA176" t="n">
         <v>0</v>
       </c>
+      <c r="AB176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -15873,6 +16403,9 @@
       <c r="AA177" t="n">
         <v>0</v>
       </c>
+      <c r="AB177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -15960,6 +16493,9 @@
       <c r="AA178" t="n">
         <v>0</v>
       </c>
+      <c r="AB178" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -16047,6 +16583,9 @@
       <c r="AA179" t="n">
         <v>0</v>
       </c>
+      <c r="AB179" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -16134,6 +16673,9 @@
       <c r="AA180" t="n">
         <v>0</v>
       </c>
+      <c r="AB180" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -16221,6 +16763,9 @@
       <c r="AA181" t="n">
         <v>0</v>
       </c>
+      <c r="AB181" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -16308,6 +16853,9 @@
       <c r="AA182" t="n">
         <v>0</v>
       </c>
+      <c r="AB182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -16395,6 +16943,9 @@
       <c r="AA183" t="n">
         <v>0</v>
       </c>
+      <c r="AB183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -16482,6 +17033,9 @@
       <c r="AA184" t="n">
         <v>0</v>
       </c>
+      <c r="AB184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -16569,6 +17123,9 @@
       <c r="AA185" t="n">
         <v>0</v>
       </c>
+      <c r="AB185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -16656,6 +17213,9 @@
       <c r="AA186" t="n">
         <v>0</v>
       </c>
+      <c r="AB186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -16743,6 +17303,9 @@
       <c r="AA187" t="n">
         <v>0</v>
       </c>
+      <c r="AB187" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -16830,6 +17393,9 @@
       <c r="AA188" t="n">
         <v>0</v>
       </c>
+      <c r="AB188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -16917,6 +17483,9 @@
       <c r="AA189" t="n">
         <v>0</v>
       </c>
+      <c r="AB189" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -17004,6 +17573,9 @@
       <c r="AA190" t="n">
         <v>0</v>
       </c>
+      <c r="AB190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -17091,6 +17663,9 @@
       <c r="AA191" t="n">
         <v>0</v>
       </c>
+      <c r="AB191" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -17178,6 +17753,9 @@
       <c r="AA192" t="n">
         <v>0</v>
       </c>
+      <c r="AB192" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -17265,6 +17843,9 @@
       <c r="AA193" t="n">
         <v>0</v>
       </c>
+      <c r="AB193" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -17352,6 +17933,9 @@
       <c r="AA194" t="n">
         <v>0</v>
       </c>
+      <c r="AB194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -17439,6 +18023,9 @@
       <c r="AA195" t="n">
         <v>0</v>
       </c>
+      <c r="AB195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -17526,6 +18113,9 @@
       <c r="AA196" t="n">
         <v>0</v>
       </c>
+      <c r="AB196" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -17613,6 +18203,9 @@
       <c r="AA197" t="n">
         <v>0</v>
       </c>
+      <c r="AB197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -17700,6 +18293,9 @@
       <c r="AA198" t="n">
         <v>0</v>
       </c>
+      <c r="AB198" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -17787,6 +18383,9 @@
       <c r="AA199" t="n">
         <v>0</v>
       </c>
+      <c r="AB199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -17874,6 +18473,9 @@
       <c r="AA200" t="n">
         <v>0</v>
       </c>
+      <c r="AB200" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -17961,6 +18563,9 @@
       <c r="AA201" t="n">
         <v>0</v>
       </c>
+      <c r="AB201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -18048,6 +18653,9 @@
       <c r="AA202" t="n">
         <v>0</v>
       </c>
+      <c r="AB202" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -18135,6 +18743,9 @@
       <c r="AA203" t="n">
         <v>0</v>
       </c>
+      <c r="AB203" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -18222,6 +18833,9 @@
       <c r="AA204" t="n">
         <v>0</v>
       </c>
+      <c r="AB204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -18309,6 +18923,9 @@
       <c r="AA205" t="n">
         <v>0</v>
       </c>
+      <c r="AB205" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -18396,6 +19013,9 @@
       <c r="AA206" t="n">
         <v>0</v>
       </c>
+      <c r="AB206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -18483,6 +19103,9 @@
       <c r="AA207" t="n">
         <v>0</v>
       </c>
+      <c r="AB207" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -18570,6 +19193,9 @@
       <c r="AA208" t="n">
         <v>0</v>
       </c>
+      <c r="AB208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -18657,6 +19283,9 @@
       <c r="AA209" t="n">
         <v>0</v>
       </c>
+      <c r="AB209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -18744,6 +19373,9 @@
       <c r="AA210" t="n">
         <v>0</v>
       </c>
+      <c r="AB210" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -18831,6 +19463,9 @@
       <c r="AA211" t="n">
         <v>0</v>
       </c>
+      <c r="AB211" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -18918,6 +19553,9 @@
       <c r="AA212" t="n">
         <v>0</v>
       </c>
+      <c r="AB212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -19005,6 +19643,9 @@
       <c r="AA213" t="n">
         <v>0</v>
       </c>
+      <c r="AB213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -19092,6 +19733,9 @@
       <c r="AA214" t="n">
         <v>0</v>
       </c>
+      <c r="AB214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -19179,6 +19823,9 @@
       <c r="AA215" t="n">
         <v>0</v>
       </c>
+      <c r="AB215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -19266,6 +19913,9 @@
       <c r="AA216" t="n">
         <v>0</v>
       </c>
+      <c r="AB216" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -19353,6 +20003,9 @@
       <c r="AA217" t="n">
         <v>0</v>
       </c>
+      <c r="AB217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -19440,6 +20093,9 @@
       <c r="AA218" t="n">
         <v>0</v>
       </c>
+      <c r="AB218" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -19527,6 +20183,9 @@
       <c r="AA219" t="n">
         <v>0</v>
       </c>
+      <c r="AB219" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -19614,6 +20273,9 @@
       <c r="AA220" t="n">
         <v>90</v>
       </c>
+      <c r="AB220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -19701,6 +20363,9 @@
       <c r="AA221" t="n">
         <v>0</v>
       </c>
+      <c r="AB221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -19788,6 +20453,9 @@
       <c r="AA222" t="n">
         <v>0</v>
       </c>
+      <c r="AB222" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -19875,6 +20543,9 @@
       <c r="AA223" t="n">
         <v>0</v>
       </c>
+      <c r="AB223" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -19962,6 +20633,9 @@
       <c r="AA224" t="n">
         <v>0</v>
       </c>
+      <c r="AB224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -20049,6 +20723,9 @@
       <c r="AA225" t="n">
         <v>0</v>
       </c>
+      <c r="AB225" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -20136,6 +20813,9 @@
       <c r="AA226" t="n">
         <v>0</v>
       </c>
+      <c r="AB226" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -20223,6 +20903,9 @@
       <c r="AA227" t="n">
         <v>0</v>
       </c>
+      <c r="AB227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -20310,6 +20993,9 @@
       <c r="AA228" t="n">
         <v>0</v>
       </c>
+      <c r="AB228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -20397,6 +21083,9 @@
       <c r="AA229" t="n">
         <v>0</v>
       </c>
+      <c r="AB229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -20484,6 +21173,9 @@
       <c r="AA230" t="n">
         <v>0</v>
       </c>
+      <c r="AB230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -20571,6 +21263,9 @@
       <c r="AA231" t="n">
         <v>0</v>
       </c>
+      <c r="AB231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -20658,6 +21353,9 @@
       <c r="AA232" t="n">
         <v>0</v>
       </c>
+      <c r="AB232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -20745,6 +21443,9 @@
       <c r="AA233" t="n">
         <v>0</v>
       </c>
+      <c r="AB233" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -20832,6 +21533,9 @@
       <c r="AA234" t="n">
         <v>0</v>
       </c>
+      <c r="AB234" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -20919,6 +21623,9 @@
       <c r="AA235" t="n">
         <v>0</v>
       </c>
+      <c r="AB235" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -21006,6 +21713,9 @@
       <c r="AA236" t="n">
         <v>0</v>
       </c>
+      <c r="AB236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -21093,6 +21803,9 @@
       <c r="AA237" t="n">
         <v>0</v>
       </c>
+      <c r="AB237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -21180,6 +21893,9 @@
       <c r="AA238" t="n">
         <v>0</v>
       </c>
+      <c r="AB238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -21267,6 +21983,9 @@
       <c r="AA239" t="n">
         <v>0</v>
       </c>
+      <c r="AB239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -21354,6 +22073,9 @@
       <c r="AA240" t="n">
         <v>0</v>
       </c>
+      <c r="AB240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -21441,6 +22163,9 @@
       <c r="AA241" t="n">
         <v>90</v>
       </c>
+      <c r="AB241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -21528,6 +22253,9 @@
       <c r="AA242" t="n">
         <v>0</v>
       </c>
+      <c r="AB242" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -21615,6 +22343,9 @@
       <c r="AA243" t="n">
         <v>0</v>
       </c>
+      <c r="AB243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -21702,6 +22433,9 @@
       <c r="AA244" t="n">
         <v>0</v>
       </c>
+      <c r="AB244" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -21789,6 +22523,9 @@
       <c r="AA245" t="n">
         <v>0</v>
       </c>
+      <c r="AB245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -21876,6 +22613,9 @@
       <c r="AA246" t="n">
         <v>0</v>
       </c>
+      <c r="AB246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -21963,6 +22703,9 @@
       <c r="AA247" t="n">
         <v>0</v>
       </c>
+      <c r="AB247" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -22050,6 +22793,9 @@
       <c r="AA248" t="n">
         <v>0</v>
       </c>
+      <c r="AB248" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -22137,6 +22883,9 @@
       <c r="AA249" t="n">
         <v>0</v>
       </c>
+      <c r="AB249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -22224,6 +22973,9 @@
       <c r="AA250" t="n">
         <v>0</v>
       </c>
+      <c r="AB250" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -22311,6 +23063,9 @@
       <c r="AA251" t="n">
         <v>0</v>
       </c>
+      <c r="AB251" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -22398,6 +23153,9 @@
       <c r="AA252" t="n">
         <v>0</v>
       </c>
+      <c r="AB252" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -22485,6 +23243,9 @@
       <c r="AA253" t="n">
         <v>0</v>
       </c>
+      <c r="AB253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -22572,6 +23333,9 @@
       <c r="AA254" t="n">
         <v>0</v>
       </c>
+      <c r="AB254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -22659,6 +23423,9 @@
       <c r="AA255" t="n">
         <v>0</v>
       </c>
+      <c r="AB255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -22746,6 +23513,9 @@
       <c r="AA256" t="n">
         <v>0</v>
       </c>
+      <c r="AB256" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -22833,6 +23603,9 @@
       <c r="AA257" t="n">
         <v>0</v>
       </c>
+      <c r="AB257" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -22920,6 +23693,9 @@
       <c r="AA258" t="n">
         <v>0</v>
       </c>
+      <c r="AB258" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -23007,6 +23783,9 @@
       <c r="AA259" t="n">
         <v>0</v>
       </c>
+      <c r="AB259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -23094,6 +23873,9 @@
       <c r="AA260" t="n">
         <v>0</v>
       </c>
+      <c r="AB260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -23181,6 +23963,9 @@
       <c r="AA261" t="n">
         <v>0</v>
       </c>
+      <c r="AB261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -23268,6 +24053,9 @@
       <c r="AA262" t="n">
         <v>0</v>
       </c>
+      <c r="AB262" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -23355,6 +24143,9 @@
       <c r="AA263" t="n">
         <v>0</v>
       </c>
+      <c r="AB263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -23442,6 +24233,9 @@
       <c r="AA264" t="n">
         <v>0</v>
       </c>
+      <c r="AB264" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -23529,6 +24323,9 @@
       <c r="AA265" t="n">
         <v>0</v>
       </c>
+      <c r="AB265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -23616,6 +24413,9 @@
       <c r="AA266" t="n">
         <v>0</v>
       </c>
+      <c r="AB266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -23703,6 +24503,9 @@
       <c r="AA267" t="n">
         <v>0</v>
       </c>
+      <c r="AB267" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -23790,6 +24593,9 @@
       <c r="AA268" t="n">
         <v>0</v>
       </c>
+      <c r="AB268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -23877,6 +24683,9 @@
       <c r="AA269" t="n">
         <v>0</v>
       </c>
+      <c r="AB269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -23964,6 +24773,9 @@
       <c r="AA270" t="n">
         <v>0</v>
       </c>
+      <c r="AB270" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -24051,6 +24863,9 @@
       <c r="AA271" t="n">
         <v>0</v>
       </c>
+      <c r="AB271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -24138,6 +24953,9 @@
       <c r="AA272" t="n">
         <v>0</v>
       </c>
+      <c r="AB272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -24225,6 +25043,9 @@
       <c r="AA273" t="n">
         <v>0</v>
       </c>
+      <c r="AB273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -24312,6 +25133,9 @@
       <c r="AA274" t="n">
         <v>0</v>
       </c>
+      <c r="AB274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -24399,6 +25223,9 @@
       <c r="AA275" t="n">
         <v>0</v>
       </c>
+      <c r="AB275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -24486,6 +25313,9 @@
       <c r="AA276" t="n">
         <v>0</v>
       </c>
+      <c r="AB276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -24573,6 +25403,9 @@
       <c r="AA277" t="n">
         <v>0</v>
       </c>
+      <c r="AB277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -24660,6 +25493,9 @@
       <c r="AA278" t="n">
         <v>0</v>
       </c>
+      <c r="AB278" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -24747,6 +25583,9 @@
       <c r="AA279" t="n">
         <v>0</v>
       </c>
+      <c r="AB279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -24834,6 +25673,9 @@
       <c r="AA280" t="n">
         <v>0</v>
       </c>
+      <c r="AB280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -24921,6 +25763,9 @@
       <c r="AA281" t="n">
         <v>0</v>
       </c>
+      <c r="AB281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -25008,6 +25853,9 @@
       <c r="AA282" t="n">
         <v>0</v>
       </c>
+      <c r="AB282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -25095,6 +25943,9 @@
       <c r="AA283" t="n">
         <v>0</v>
       </c>
+      <c r="AB283" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -25182,6 +26033,9 @@
       <c r="AA284" t="n">
         <v>0</v>
       </c>
+      <c r="AB284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -25269,6 +26123,9 @@
       <c r="AA285" t="n">
         <v>0</v>
       </c>
+      <c r="AB285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -25356,6 +26213,9 @@
       <c r="AA286" t="n">
         <v>0</v>
       </c>
+      <c r="AB286" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -25443,6 +26303,9 @@
       <c r="AA287" t="n">
         <v>0</v>
       </c>
+      <c r="AB287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -25530,6 +26393,9 @@
       <c r="AA288" t="n">
         <v>0</v>
       </c>
+      <c r="AB288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -25617,6 +26483,9 @@
       <c r="AA289" t="n">
         <v>0</v>
       </c>
+      <c r="AB289" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -25704,6 +26573,9 @@
       <c r="AA290" t="n">
         <v>0</v>
       </c>
+      <c r="AB290" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -25791,6 +26663,9 @@
       <c r="AA291" t="n">
         <v>0</v>
       </c>
+      <c r="AB291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -25878,6 +26753,9 @@
       <c r="AA292" t="n">
         <v>0</v>
       </c>
+      <c r="AB292" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -25965,6 +26843,9 @@
       <c r="AA293" t="n">
         <v>0</v>
       </c>
+      <c r="AB293" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -26052,6 +26933,9 @@
       <c r="AA294" t="n">
         <v>0</v>
       </c>
+      <c r="AB294" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -26139,6 +27023,9 @@
       <c r="AA295" t="n">
         <v>0</v>
       </c>
+      <c r="AB295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -26226,6 +27113,9 @@
       <c r="AA296" t="n">
         <v>0</v>
       </c>
+      <c r="AB296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -26313,6 +27203,9 @@
       <c r="AA297" t="n">
         <v>0</v>
       </c>
+      <c r="AB297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -26400,6 +27293,9 @@
       <c r="AA298" t="n">
         <v>0</v>
       </c>
+      <c r="AB298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -26487,6 +27383,9 @@
       <c r="AA299" t="n">
         <v>0</v>
       </c>
+      <c r="AB299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -26574,6 +27473,9 @@
       <c r="AA300" t="n">
         <v>0</v>
       </c>
+      <c r="AB300" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -26661,6 +27563,9 @@
       <c r="AA301" t="n">
         <v>0</v>
       </c>
+      <c r="AB301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -26748,6 +27653,9 @@
       <c r="AA302" t="n">
         <v>0</v>
       </c>
+      <c r="AB302" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -26835,6 +27743,9 @@
       <c r="AA303" t="n">
         <v>0</v>
       </c>
+      <c r="AB303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -26922,6 +27833,9 @@
       <c r="AA304" t="n">
         <v>0</v>
       </c>
+      <c r="AB304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -27009,6 +27923,9 @@
       <c r="AA305" t="n">
         <v>0</v>
       </c>
+      <c r="AB305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -27096,6 +28013,9 @@
       <c r="AA306" t="n">
         <v>0</v>
       </c>
+      <c r="AB306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -27183,6 +28103,9 @@
       <c r="AA307" t="n">
         <v>0</v>
       </c>
+      <c r="AB307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -27270,6 +28193,9 @@
       <c r="AA308" t="n">
         <v>0</v>
       </c>
+      <c r="AB308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -27357,6 +28283,9 @@
       <c r="AA309" t="n">
         <v>0</v>
       </c>
+      <c r="AB309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -27444,6 +28373,9 @@
       <c r="AA310" t="n">
         <v>0</v>
       </c>
+      <c r="AB310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -27531,6 +28463,9 @@
       <c r="AA311" t="n">
         <v>0</v>
       </c>
+      <c r="AB311" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -27618,6 +28553,9 @@
       <c r="AA312" t="n">
         <v>0</v>
       </c>
+      <c r="AB312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -27705,6 +28643,9 @@
       <c r="AA313" t="n">
         <v>0</v>
       </c>
+      <c r="AB313" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -27792,6 +28733,9 @@
       <c r="AA314" t="n">
         <v>0</v>
       </c>
+      <c r="AB314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -27879,6 +28823,9 @@
       <c r="AA315" t="n">
         <v>0</v>
       </c>
+      <c r="AB315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -27966,6 +28913,9 @@
       <c r="AA316" t="n">
         <v>0</v>
       </c>
+      <c r="AB316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -28053,6 +29003,9 @@
       <c r="AA317" t="n">
         <v>0</v>
       </c>
+      <c r="AB317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -28140,6 +29093,9 @@
       <c r="AA318" t="n">
         <v>0</v>
       </c>
+      <c r="AB318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -28227,6 +29183,9 @@
       <c r="AA319" t="n">
         <v>0</v>
       </c>
+      <c r="AB319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -28314,6 +29273,9 @@
       <c r="AA320" t="n">
         <v>0</v>
       </c>
+      <c r="AB320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -28401,6 +29363,9 @@
       <c r="AA321" t="n">
         <v>0</v>
       </c>
+      <c r="AB321" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -28488,6 +29453,9 @@
       <c r="AA322" t="n">
         <v>90</v>
       </c>
+      <c r="AB322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -28575,6 +29543,9 @@
       <c r="AA323" t="n">
         <v>0</v>
       </c>
+      <c r="AB323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -28662,6 +29633,9 @@
       <c r="AA324" t="n">
         <v>0</v>
       </c>
+      <c r="AB324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -28749,6 +29723,9 @@
       <c r="AA325" t="n">
         <v>0</v>
       </c>
+      <c r="AB325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -28836,6 +29813,9 @@
       <c r="AA326" t="n">
         <v>0</v>
       </c>
+      <c r="AB326" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -28923,6 +29903,9 @@
       <c r="AA327" t="n">
         <v>0</v>
       </c>
+      <c r="AB327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -29010,6 +29993,9 @@
       <c r="AA328" t="n">
         <v>0</v>
       </c>
+      <c r="AB328" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -29097,6 +30083,9 @@
       <c r="AA329" t="n">
         <v>0</v>
       </c>
+      <c r="AB329" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -29184,6 +30173,9 @@
       <c r="AA330" t="n">
         <v>0</v>
       </c>
+      <c r="AB330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -29271,6 +30263,9 @@
       <c r="AA331" t="n">
         <v>0</v>
       </c>
+      <c r="AB331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -29358,6 +30353,9 @@
       <c r="AA332" t="n">
         <v>0</v>
       </c>
+      <c r="AB332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -29445,6 +30443,9 @@
       <c r="AA333" t="n">
         <v>0</v>
       </c>
+      <c r="AB333" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -29532,6 +30533,9 @@
       <c r="AA334" t="n">
         <v>0</v>
       </c>
+      <c r="AB334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -29619,6 +30623,9 @@
       <c r="AA335" t="n">
         <v>0</v>
       </c>
+      <c r="AB335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -29706,6 +30713,9 @@
       <c r="AA336" t="n">
         <v>0</v>
       </c>
+      <c r="AB336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -29793,6 +30803,9 @@
       <c r="AA337" t="n">
         <v>0</v>
       </c>
+      <c r="AB337" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -29880,6 +30893,9 @@
       <c r="AA338" t="n">
         <v>0</v>
       </c>
+      <c r="AB338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -29967,6 +30983,9 @@
       <c r="AA339" t="n">
         <v>0</v>
       </c>
+      <c r="AB339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -30054,6 +31073,9 @@
       <c r="AA340" t="n">
         <v>0</v>
       </c>
+      <c r="AB340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -30141,6 +31163,9 @@
       <c r="AA341" t="n">
         <v>0</v>
       </c>
+      <c r="AB341" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -30228,6 +31253,9 @@
       <c r="AA342" t="n">
         <v>0</v>
       </c>
+      <c r="AB342" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -30315,6 +31343,9 @@
       <c r="AA343" t="n">
         <v>0</v>
       </c>
+      <c r="AB343" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -30400,6 +31431,9 @@
         <v>0</v>
       </c>
       <c r="AA344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB344" t="n">
         <v>0</v>
       </c>
     </row>

--- a/SEM2-HOURS.xlsx
+++ b/SEM2-HOURS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB344"/>
+  <dimension ref="A1:AF344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,6 +574,26 @@
           <t>Climate_Conclave</t>
         </is>
       </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Planatation Drive Seva Utsav</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Planatation_Drive_Seva_Utsav</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>In Campus Planatation_Drive_Seva_Utsav</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Out Campus Planatation_Drive_Seva_Utsav</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -656,6 +676,18 @@
       <c r="AB2" t="n">
         <v>7</v>
       </c>
+      <c r="AC2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -746,6 +778,18 @@
       <c r="AB3" t="n">
         <v>0</v>
       </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -836,6 +880,18 @@
       <c r="AB4" t="n">
         <v>0</v>
       </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -924,6 +980,18 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1016,6 +1084,18 @@
       <c r="AB6" t="n">
         <v>0</v>
       </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1106,6 +1186,18 @@
       <c r="AB7" t="n">
         <v>0</v>
       </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1196,6 +1288,18 @@
       <c r="AB8" t="n">
         <v>0</v>
       </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1286,6 +1390,18 @@
       <c r="AB9" t="n">
         <v>0</v>
       </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1376,6 +1492,18 @@
       <c r="AB10" t="n">
         <v>7</v>
       </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1466,6 +1594,18 @@
       <c r="AB11" t="n">
         <v>0</v>
       </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1556,6 +1696,18 @@
       <c r="AB12" t="n">
         <v>0</v>
       </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1646,6 +1798,18 @@
       <c r="AB13" t="n">
         <v>7</v>
       </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1736,6 +1900,18 @@
       <c r="AB14" t="n">
         <v>0</v>
       </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1826,6 +2002,18 @@
       <c r="AB15" t="n">
         <v>7</v>
       </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1916,6 +2104,18 @@
       <c r="AB16" t="n">
         <v>0</v>
       </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2006,6 +2206,18 @@
       <c r="AB17" t="n">
         <v>0</v>
       </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2096,6 +2308,18 @@
       <c r="AB18" t="n">
         <v>0</v>
       </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2186,6 +2410,18 @@
       <c r="AB19" t="n">
         <v>0</v>
       </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2276,6 +2512,18 @@
       <c r="AB20" t="n">
         <v>0</v>
       </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2366,6 +2614,18 @@
       <c r="AB21" t="n">
         <v>0</v>
       </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2456,6 +2716,18 @@
       <c r="AB22" t="n">
         <v>0</v>
       </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2546,6 +2818,18 @@
       <c r="AB23" t="n">
         <v>7</v>
       </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2636,6 +2920,18 @@
       <c r="AB24" t="n">
         <v>0</v>
       </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2726,6 +3022,18 @@
       <c r="AB25" t="n">
         <v>0</v>
       </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2816,6 +3124,18 @@
       <c r="AB26" t="n">
         <v>7</v>
       </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2906,6 +3226,18 @@
       <c r="AB27" t="n">
         <v>7</v>
       </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2996,6 +3328,18 @@
       <c r="AB28" t="n">
         <v>0</v>
       </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3086,6 +3430,18 @@
       <c r="AB29" t="n">
         <v>7</v>
       </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3176,6 +3532,18 @@
       <c r="AB30" t="n">
         <v>0</v>
       </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3266,6 +3634,18 @@
       <c r="AB31" t="n">
         <v>7</v>
       </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3356,6 +3736,18 @@
       <c r="AB32" t="n">
         <v>7</v>
       </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3446,6 +3838,18 @@
       <c r="AB33" t="n">
         <v>0</v>
       </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3536,6 +3940,18 @@
       <c r="AB34" t="n">
         <v>7</v>
       </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3626,6 +4042,18 @@
       <c r="AB35" t="n">
         <v>7</v>
       </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3716,6 +4144,18 @@
       <c r="AB36" t="n">
         <v>0</v>
       </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3806,6 +4246,18 @@
       <c r="AB37" t="n">
         <v>0</v>
       </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3896,6 +4348,18 @@
       <c r="AB38" t="n">
         <v>0</v>
       </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3986,6 +4450,18 @@
       <c r="AB39" t="n">
         <v>7</v>
       </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4076,6 +4552,18 @@
       <c r="AB40" t="n">
         <v>0</v>
       </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4166,6 +4654,18 @@
       <c r="AB41" t="n">
         <v>0</v>
       </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4256,6 +4756,18 @@
       <c r="AB42" t="n">
         <v>7</v>
       </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4346,6 +4858,18 @@
       <c r="AB43" t="n">
         <v>0</v>
       </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4436,6 +4960,18 @@
       <c r="AB44" t="n">
         <v>0</v>
       </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4526,6 +5062,18 @@
       <c r="AB45" t="n">
         <v>0</v>
       </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4616,6 +5164,18 @@
       <c r="AB46" t="n">
         <v>0</v>
       </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4706,6 +5266,18 @@
       <c r="AB47" t="n">
         <v>7</v>
       </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4796,6 +5368,18 @@
       <c r="AB48" t="n">
         <v>0</v>
       </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4886,6 +5470,18 @@
       <c r="AB49" t="n">
         <v>7</v>
       </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4976,6 +5572,18 @@
       <c r="AB50" t="n">
         <v>7</v>
       </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5066,6 +5674,18 @@
       <c r="AB51" t="n">
         <v>7</v>
       </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5156,6 +5776,18 @@
       <c r="AB52" t="n">
         <v>0</v>
       </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5246,6 +5878,18 @@
       <c r="AB53" t="n">
         <v>7</v>
       </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5336,6 +5980,18 @@
       <c r="AB54" t="n">
         <v>7</v>
       </c>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5426,6 +6082,18 @@
       <c r="AB55" t="n">
         <v>0</v>
       </c>
+      <c r="AC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5516,6 +6184,18 @@
       <c r="AB56" t="n">
         <v>0</v>
       </c>
+      <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5606,6 +6286,18 @@
       <c r="AB57" t="n">
         <v>0</v>
       </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5696,6 +6388,18 @@
       <c r="AB58" t="n">
         <v>0</v>
       </c>
+      <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5786,6 +6490,18 @@
       <c r="AB59" t="n">
         <v>0</v>
       </c>
+      <c r="AC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5876,6 +6592,18 @@
       <c r="AB60" t="n">
         <v>7</v>
       </c>
+      <c r="AC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5966,6 +6694,18 @@
       <c r="AB61" t="n">
         <v>0</v>
       </c>
+      <c r="AC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6056,6 +6796,18 @@
       <c r="AB62" t="n">
         <v>0</v>
       </c>
+      <c r="AC62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6146,6 +6898,18 @@
       <c r="AB63" t="n">
         <v>0</v>
       </c>
+      <c r="AC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6236,6 +7000,18 @@
       <c r="AB64" t="n">
         <v>7</v>
       </c>
+      <c r="AC64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6326,6 +7102,18 @@
       <c r="AB65" t="n">
         <v>0</v>
       </c>
+      <c r="AC65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6416,6 +7204,18 @@
       <c r="AB66" t="n">
         <v>0</v>
       </c>
+      <c r="AC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6506,6 +7306,18 @@
       <c r="AB67" t="n">
         <v>7</v>
       </c>
+      <c r="AC67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -6596,6 +7408,18 @@
       <c r="AB68" t="n">
         <v>7</v>
       </c>
+      <c r="AC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -6686,6 +7510,18 @@
       <c r="AB69" t="n">
         <v>7</v>
       </c>
+      <c r="AC69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -6776,6 +7612,18 @@
       <c r="AB70" t="n">
         <v>7</v>
       </c>
+      <c r="AC70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -6866,6 +7714,18 @@
       <c r="AB71" t="n">
         <v>0</v>
       </c>
+      <c r="AC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -6956,6 +7816,18 @@
       <c r="AB72" t="n">
         <v>0</v>
       </c>
+      <c r="AC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -7046,6 +7918,18 @@
       <c r="AB73" t="n">
         <v>0</v>
       </c>
+      <c r="AC73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -7136,6 +8020,18 @@
       <c r="AB74" t="n">
         <v>0</v>
       </c>
+      <c r="AC74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -7226,6 +8122,18 @@
       <c r="AB75" t="n">
         <v>7</v>
       </c>
+      <c r="AC75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -7316,6 +8224,18 @@
       <c r="AB76" t="n">
         <v>7</v>
       </c>
+      <c r="AC76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -7406,6 +8326,18 @@
       <c r="AB77" t="n">
         <v>0</v>
       </c>
+      <c r="AC77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -7496,6 +8428,18 @@
       <c r="AB78" t="n">
         <v>7</v>
       </c>
+      <c r="AC78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -7586,6 +8530,18 @@
       <c r="AB79" t="n">
         <v>7</v>
       </c>
+      <c r="AC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -7676,6 +8632,18 @@
       <c r="AB80" t="n">
         <v>0</v>
       </c>
+      <c r="AC80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -7766,6 +8734,18 @@
       <c r="AB81" t="n">
         <v>0</v>
       </c>
+      <c r="AC81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -7856,6 +8836,18 @@
       <c r="AB82" t="n">
         <v>0</v>
       </c>
+      <c r="AC82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -7946,6 +8938,18 @@
       <c r="AB83" t="n">
         <v>0</v>
       </c>
+      <c r="AC83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -8036,6 +9040,18 @@
       <c r="AB84" t="n">
         <v>0</v>
       </c>
+      <c r="AC84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -8126,6 +9142,18 @@
       <c r="AB85" t="n">
         <v>0</v>
       </c>
+      <c r="AC85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -8216,6 +9244,18 @@
       <c r="AB86" t="n">
         <v>7</v>
       </c>
+      <c r="AC86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -8306,6 +9346,18 @@
       <c r="AB87" t="n">
         <v>0</v>
       </c>
+      <c r="AC87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -8396,6 +9448,18 @@
       <c r="AB88" t="n">
         <v>0</v>
       </c>
+      <c r="AC88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -8486,6 +9550,18 @@
       <c r="AB89" t="n">
         <v>0</v>
       </c>
+      <c r="AC89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -8576,6 +9652,18 @@
       <c r="AB90" t="n">
         <v>0</v>
       </c>
+      <c r="AC90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -8666,6 +9754,18 @@
       <c r="AB91" t="n">
         <v>0</v>
       </c>
+      <c r="AC91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -8756,6 +9856,18 @@
       <c r="AB92" t="n">
         <v>0</v>
       </c>
+      <c r="AC92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -8846,6 +9958,18 @@
       <c r="AB93" t="n">
         <v>0</v>
       </c>
+      <c r="AC93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -8936,6 +10060,18 @@
       <c r="AB94" t="n">
         <v>0</v>
       </c>
+      <c r="AC94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -9026,6 +10162,18 @@
       <c r="AB95" t="n">
         <v>7</v>
       </c>
+      <c r="AC95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -9116,6 +10264,18 @@
       <c r="AB96" t="n">
         <v>7</v>
       </c>
+      <c r="AC96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -9206,6 +10366,18 @@
       <c r="AB97" t="n">
         <v>0</v>
       </c>
+      <c r="AC97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -9296,6 +10468,18 @@
       <c r="AB98" t="n">
         <v>0</v>
       </c>
+      <c r="AC98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -9386,6 +10570,18 @@
       <c r="AB99" t="n">
         <v>7</v>
       </c>
+      <c r="AC99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -9476,6 +10672,18 @@
       <c r="AB100" t="n">
         <v>0</v>
       </c>
+      <c r="AC100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -9566,6 +10774,18 @@
       <c r="AB101" t="n">
         <v>0</v>
       </c>
+      <c r="AC101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -9656,6 +10876,18 @@
       <c r="AB102" t="n">
         <v>7</v>
       </c>
+      <c r="AC102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -9746,6 +10978,18 @@
       <c r="AB103" t="n">
         <v>0</v>
       </c>
+      <c r="AC103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -9836,6 +11080,18 @@
       <c r="AB104" t="n">
         <v>0</v>
       </c>
+      <c r="AC104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -9926,6 +11182,18 @@
       <c r="AB105" t="n">
         <v>0</v>
       </c>
+      <c r="AC105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -10016,6 +11284,18 @@
       <c r="AB106" t="n">
         <v>0</v>
       </c>
+      <c r="AC106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -10106,6 +11386,18 @@
       <c r="AB107" t="n">
         <v>0</v>
       </c>
+      <c r="AC107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -10196,6 +11488,18 @@
       <c r="AB108" t="n">
         <v>0</v>
       </c>
+      <c r="AC108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -10286,6 +11590,18 @@
       <c r="AB109" t="n">
         <v>7</v>
       </c>
+      <c r="AC109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -10376,6 +11692,18 @@
       <c r="AB110" t="n">
         <v>0</v>
       </c>
+      <c r="AC110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -10466,6 +11794,18 @@
       <c r="AB111" t="n">
         <v>7</v>
       </c>
+      <c r="AC111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -10556,6 +11896,18 @@
       <c r="AB112" t="n">
         <v>7</v>
       </c>
+      <c r="AC112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -10646,6 +11998,18 @@
       <c r="AB113" t="n">
         <v>0</v>
       </c>
+      <c r="AC113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -10736,6 +12100,18 @@
       <c r="AB114" t="n">
         <v>0</v>
       </c>
+      <c r="AC114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -10826,6 +12202,18 @@
       <c r="AB115" t="n">
         <v>0</v>
       </c>
+      <c r="AC115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -10916,6 +12304,18 @@
       <c r="AB116" t="n">
         <v>0</v>
       </c>
+      <c r="AC116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -11006,6 +12406,18 @@
       <c r="AB117" t="n">
         <v>7</v>
       </c>
+      <c r="AC117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -11096,6 +12508,18 @@
       <c r="AB118" t="n">
         <v>0</v>
       </c>
+      <c r="AC118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -11186,6 +12610,18 @@
       <c r="AB119" t="n">
         <v>7</v>
       </c>
+      <c r="AC119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -11276,6 +12712,18 @@
       <c r="AB120" t="n">
         <v>0</v>
       </c>
+      <c r="AC120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -11366,6 +12814,18 @@
       <c r="AB121" t="n">
         <v>7</v>
       </c>
+      <c r="AC121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -11456,6 +12916,18 @@
       <c r="AB122" t="n">
         <v>0</v>
       </c>
+      <c r="AC122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -11546,6 +13018,18 @@
       <c r="AB123" t="n">
         <v>0</v>
       </c>
+      <c r="AC123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -11636,6 +13120,18 @@
       <c r="AB124" t="n">
         <v>0</v>
       </c>
+      <c r="AC124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -11726,6 +13222,18 @@
       <c r="AB125" t="n">
         <v>0</v>
       </c>
+      <c r="AC125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -11816,6 +13324,18 @@
       <c r="AB126" t="n">
         <v>0</v>
       </c>
+      <c r="AC126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -11906,6 +13426,18 @@
       <c r="AB127" t="n">
         <v>0</v>
       </c>
+      <c r="AC127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -11996,6 +13528,18 @@
       <c r="AB128" t="n">
         <v>0</v>
       </c>
+      <c r="AC128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -12086,6 +13630,18 @@
       <c r="AB129" t="n">
         <v>7</v>
       </c>
+      <c r="AC129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -12176,6 +13732,18 @@
       <c r="AB130" t="n">
         <v>0</v>
       </c>
+      <c r="AC130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -12266,6 +13834,18 @@
       <c r="AB131" t="n">
         <v>7</v>
       </c>
+      <c r="AC131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -12356,6 +13936,18 @@
       <c r="AB132" t="n">
         <v>0</v>
       </c>
+      <c r="AC132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -12446,6 +14038,18 @@
       <c r="AB133" t="n">
         <v>0</v>
       </c>
+      <c r="AC133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -12536,6 +14140,18 @@
       <c r="AB134" t="n">
         <v>0</v>
       </c>
+      <c r="AC134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -12626,6 +14242,18 @@
       <c r="AB135" t="n">
         <v>0</v>
       </c>
+      <c r="AC135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -12716,6 +14344,18 @@
       <c r="AB136" t="n">
         <v>0</v>
       </c>
+      <c r="AC136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -12806,6 +14446,18 @@
       <c r="AB137" t="n">
         <v>0</v>
       </c>
+      <c r="AC137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -12896,6 +14548,18 @@
       <c r="AB138" t="n">
         <v>0</v>
       </c>
+      <c r="AC138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -12986,6 +14650,18 @@
       <c r="AB139" t="n">
         <v>7</v>
       </c>
+      <c r="AC139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -13076,6 +14752,18 @@
       <c r="AB140" t="n">
         <v>0</v>
       </c>
+      <c r="AC140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -13166,6 +14854,18 @@
       <c r="AB141" t="n">
         <v>0</v>
       </c>
+      <c r="AC141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -13256,6 +14956,18 @@
       <c r="AB142" t="n">
         <v>0</v>
       </c>
+      <c r="AC142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -13346,6 +15058,18 @@
       <c r="AB143" t="n">
         <v>7</v>
       </c>
+      <c r="AC143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -13436,6 +15160,18 @@
       <c r="AB144" t="n">
         <v>7</v>
       </c>
+      <c r="AC144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -13526,6 +15262,18 @@
       <c r="AB145" t="n">
         <v>0</v>
       </c>
+      <c r="AC145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -13616,6 +15364,18 @@
       <c r="AB146" t="n">
         <v>0</v>
       </c>
+      <c r="AC146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -13706,6 +15466,18 @@
       <c r="AB147" t="n">
         <v>0</v>
       </c>
+      <c r="AC147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -13796,6 +15568,18 @@
       <c r="AB148" t="n">
         <v>0</v>
       </c>
+      <c r="AC148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -13886,6 +15670,18 @@
       <c r="AB149" t="n">
         <v>7</v>
       </c>
+      <c r="AC149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -13976,6 +15772,18 @@
       <c r="AB150" t="n">
         <v>0</v>
       </c>
+      <c r="AC150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -14066,6 +15874,18 @@
       <c r="AB151" t="n">
         <v>0</v>
       </c>
+      <c r="AC151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -14156,6 +15976,18 @@
       <c r="AB152" t="n">
         <v>0</v>
       </c>
+      <c r="AC152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -14246,6 +16078,18 @@
       <c r="AB153" t="n">
         <v>0</v>
       </c>
+      <c r="AC153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -14336,6 +16180,18 @@
       <c r="AB154" t="n">
         <v>7</v>
       </c>
+      <c r="AC154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -14426,6 +16282,18 @@
       <c r="AB155" t="n">
         <v>7</v>
       </c>
+      <c r="AC155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -14516,6 +16384,18 @@
       <c r="AB156" t="n">
         <v>0</v>
       </c>
+      <c r="AC156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -14606,6 +16486,18 @@
       <c r="AB157" t="n">
         <v>0</v>
       </c>
+      <c r="AC157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -14696,6 +16588,18 @@
       <c r="AB158" t="n">
         <v>7</v>
       </c>
+      <c r="AC158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -14786,6 +16690,18 @@
       <c r="AB159" t="n">
         <v>0</v>
       </c>
+      <c r="AC159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -14876,6 +16792,18 @@
       <c r="AB160" t="n">
         <v>0</v>
       </c>
+      <c r="AC160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -14966,6 +16894,18 @@
       <c r="AB161" t="n">
         <v>7</v>
       </c>
+      <c r="AC161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -15056,6 +16996,18 @@
       <c r="AB162" t="n">
         <v>0</v>
       </c>
+      <c r="AC162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -15146,6 +17098,18 @@
       <c r="AB163" t="n">
         <v>7</v>
       </c>
+      <c r="AC163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -15236,6 +17200,18 @@
       <c r="AB164" t="n">
         <v>0</v>
       </c>
+      <c r="AC164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -15326,6 +17302,18 @@
       <c r="AB165" t="n">
         <v>0</v>
       </c>
+      <c r="AC165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -15416,6 +17404,18 @@
       <c r="AB166" t="n">
         <v>7</v>
       </c>
+      <c r="AC166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -15506,6 +17506,18 @@
       <c r="AB167" t="n">
         <v>0</v>
       </c>
+      <c r="AC167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -15596,6 +17608,18 @@
       <c r="AB168" t="n">
         <v>0</v>
       </c>
+      <c r="AC168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -15686,6 +17710,18 @@
       <c r="AB169" t="n">
         <v>7</v>
       </c>
+      <c r="AC169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -15776,6 +17812,18 @@
       <c r="AB170" t="n">
         <v>0</v>
       </c>
+      <c r="AC170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -15866,6 +17914,18 @@
       <c r="AB171" t="n">
         <v>0</v>
       </c>
+      <c r="AC171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -15956,6 +18016,18 @@
       <c r="AB172" t="n">
         <v>0</v>
       </c>
+      <c r="AC172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -16046,6 +18118,18 @@
       <c r="AB173" t="n">
         <v>0</v>
       </c>
+      <c r="AC173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -16136,6 +18220,18 @@
       <c r="AB174" t="n">
         <v>0</v>
       </c>
+      <c r="AC174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -16226,6 +18322,18 @@
       <c r="AB175" t="n">
         <v>0</v>
       </c>
+      <c r="AC175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -16316,6 +18424,18 @@
       <c r="AB176" t="n">
         <v>0</v>
       </c>
+      <c r="AC176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -16406,6 +18526,18 @@
       <c r="AB177" t="n">
         <v>0</v>
       </c>
+      <c r="AC177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -16496,6 +18628,18 @@
       <c r="AB178" t="n">
         <v>7</v>
       </c>
+      <c r="AC178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -16586,6 +18730,18 @@
       <c r="AB179" t="n">
         <v>7</v>
       </c>
+      <c r="AC179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -16676,6 +18832,18 @@
       <c r="AB180" t="n">
         <v>7</v>
       </c>
+      <c r="AC180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -16766,6 +18934,18 @@
       <c r="AB181" t="n">
         <v>7</v>
       </c>
+      <c r="AC181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -16856,6 +19036,18 @@
       <c r="AB182" t="n">
         <v>0</v>
       </c>
+      <c r="AC182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -16946,6 +19138,18 @@
       <c r="AB183" t="n">
         <v>0</v>
       </c>
+      <c r="AC183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -17036,6 +19240,18 @@
       <c r="AB184" t="n">
         <v>0</v>
       </c>
+      <c r="AC184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -17126,6 +19342,18 @@
       <c r="AB185" t="n">
         <v>0</v>
       </c>
+      <c r="AC185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -17216,6 +19444,18 @@
       <c r="AB186" t="n">
         <v>0</v>
       </c>
+      <c r="AC186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -17306,6 +19546,18 @@
       <c r="AB187" t="n">
         <v>7</v>
       </c>
+      <c r="AC187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -17396,6 +19648,18 @@
       <c r="AB188" t="n">
         <v>0</v>
       </c>
+      <c r="AC188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -17486,6 +19750,18 @@
       <c r="AB189" t="n">
         <v>7</v>
       </c>
+      <c r="AC189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -17576,6 +19852,18 @@
       <c r="AB190" t="n">
         <v>0</v>
       </c>
+      <c r="AC190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -17666,6 +19954,18 @@
       <c r="AB191" t="n">
         <v>7</v>
       </c>
+      <c r="AC191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -17756,6 +20056,18 @@
       <c r="AB192" t="n">
         <v>7</v>
       </c>
+      <c r="AC192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -17846,6 +20158,18 @@
       <c r="AB193" t="n">
         <v>7</v>
       </c>
+      <c r="AC193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -17936,6 +20260,18 @@
       <c r="AB194" t="n">
         <v>0</v>
       </c>
+      <c r="AC194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -18026,6 +20362,18 @@
       <c r="AB195" t="n">
         <v>0</v>
       </c>
+      <c r="AC195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -18116,6 +20464,18 @@
       <c r="AB196" t="n">
         <v>7</v>
       </c>
+      <c r="AC196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -18206,6 +20566,18 @@
       <c r="AB197" t="n">
         <v>0</v>
       </c>
+      <c r="AC197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -18296,6 +20668,18 @@
       <c r="AB198" t="n">
         <v>7</v>
       </c>
+      <c r="AC198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -18386,6 +20770,18 @@
       <c r="AB199" t="n">
         <v>0</v>
       </c>
+      <c r="AC199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -18476,6 +20872,18 @@
       <c r="AB200" t="n">
         <v>7</v>
       </c>
+      <c r="AC200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -18566,6 +20974,18 @@
       <c r="AB201" t="n">
         <v>0</v>
       </c>
+      <c r="AC201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -18656,6 +21076,18 @@
       <c r="AB202" t="n">
         <v>7</v>
       </c>
+      <c r="AC202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -18746,6 +21178,18 @@
       <c r="AB203" t="n">
         <v>7</v>
       </c>
+      <c r="AC203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -18836,6 +21280,18 @@
       <c r="AB204" t="n">
         <v>0</v>
       </c>
+      <c r="AC204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -18926,6 +21382,18 @@
       <c r="AB205" t="n">
         <v>7</v>
       </c>
+      <c r="AC205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -19016,6 +21484,18 @@
       <c r="AB206" t="n">
         <v>0</v>
       </c>
+      <c r="AC206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -19106,6 +21586,18 @@
       <c r="AB207" t="n">
         <v>7</v>
       </c>
+      <c r="AC207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -19196,6 +21688,18 @@
       <c r="AB208" t="n">
         <v>0</v>
       </c>
+      <c r="AC208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -19286,6 +21790,18 @@
       <c r="AB209" t="n">
         <v>0</v>
       </c>
+      <c r="AC209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -19376,6 +21892,18 @@
       <c r="AB210" t="n">
         <v>7</v>
       </c>
+      <c r="AC210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -19466,6 +21994,18 @@
       <c r="AB211" t="n">
         <v>7</v>
       </c>
+      <c r="AC211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -19556,6 +22096,18 @@
       <c r="AB212" t="n">
         <v>0</v>
       </c>
+      <c r="AC212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -19646,6 +22198,18 @@
       <c r="AB213" t="n">
         <v>0</v>
       </c>
+      <c r="AC213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -19736,6 +22300,18 @@
       <c r="AB214" t="n">
         <v>0</v>
       </c>
+      <c r="AC214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -19826,6 +22402,18 @@
       <c r="AB215" t="n">
         <v>0</v>
       </c>
+      <c r="AC215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -19916,6 +22504,18 @@
       <c r="AB216" t="n">
         <v>7</v>
       </c>
+      <c r="AC216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -20006,6 +22606,18 @@
       <c r="AB217" t="n">
         <v>0</v>
       </c>
+      <c r="AC217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -20096,6 +22708,18 @@
       <c r="AB218" t="n">
         <v>7</v>
       </c>
+      <c r="AC218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -20186,6 +22810,18 @@
       <c r="AB219" t="n">
         <v>7</v>
       </c>
+      <c r="AC219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -20276,6 +22912,18 @@
       <c r="AB220" t="n">
         <v>0</v>
       </c>
+      <c r="AC220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -20366,6 +23014,18 @@
       <c r="AB221" t="n">
         <v>0</v>
       </c>
+      <c r="AC221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -20456,6 +23116,18 @@
       <c r="AB222" t="n">
         <v>7</v>
       </c>
+      <c r="AC222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -20546,6 +23218,18 @@
       <c r="AB223" t="n">
         <v>7</v>
       </c>
+      <c r="AC223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -20636,6 +23320,18 @@
       <c r="AB224" t="n">
         <v>0</v>
       </c>
+      <c r="AC224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -20726,6 +23422,18 @@
       <c r="AB225" t="n">
         <v>7</v>
       </c>
+      <c r="AC225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -20816,6 +23524,18 @@
       <c r="AB226" t="n">
         <v>7</v>
       </c>
+      <c r="AC226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -20906,6 +23626,18 @@
       <c r="AB227" t="n">
         <v>0</v>
       </c>
+      <c r="AC227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -20996,6 +23728,18 @@
       <c r="AB228" t="n">
         <v>0</v>
       </c>
+      <c r="AC228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -21086,6 +23830,18 @@
       <c r="AB229" t="n">
         <v>0</v>
       </c>
+      <c r="AC229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -21176,6 +23932,18 @@
       <c r="AB230" t="n">
         <v>0</v>
       </c>
+      <c r="AC230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -21266,6 +24034,18 @@
       <c r="AB231" t="n">
         <v>0</v>
       </c>
+      <c r="AC231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -21356,6 +24136,18 @@
       <c r="AB232" t="n">
         <v>0</v>
       </c>
+      <c r="AC232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -21446,6 +24238,18 @@
       <c r="AB233" t="n">
         <v>7</v>
       </c>
+      <c r="AC233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -21536,6 +24340,18 @@
       <c r="AB234" t="n">
         <v>7</v>
       </c>
+      <c r="AC234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -21626,6 +24442,18 @@
       <c r="AB235" t="n">
         <v>7</v>
       </c>
+      <c r="AC235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -21716,6 +24544,18 @@
       <c r="AB236" t="n">
         <v>0</v>
       </c>
+      <c r="AC236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -21806,6 +24646,18 @@
       <c r="AB237" t="n">
         <v>0</v>
       </c>
+      <c r="AC237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -21896,6 +24748,18 @@
       <c r="AB238" t="n">
         <v>0</v>
       </c>
+      <c r="AC238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -21986,6 +24850,18 @@
       <c r="AB239" t="n">
         <v>0</v>
       </c>
+      <c r="AC239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -22076,6 +24952,18 @@
       <c r="AB240" t="n">
         <v>0</v>
       </c>
+      <c r="AC240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -22166,6 +25054,18 @@
       <c r="AB241" t="n">
         <v>0</v>
       </c>
+      <c r="AC241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -22256,6 +25156,18 @@
       <c r="AB242" t="n">
         <v>7</v>
       </c>
+      <c r="AC242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -22346,6 +25258,18 @@
       <c r="AB243" t="n">
         <v>0</v>
       </c>
+      <c r="AC243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -22436,6 +25360,18 @@
       <c r="AB244" t="n">
         <v>7</v>
       </c>
+      <c r="AC244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -22526,6 +25462,18 @@
       <c r="AB245" t="n">
         <v>0</v>
       </c>
+      <c r="AC245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -22616,6 +25564,18 @@
       <c r="AB246" t="n">
         <v>0</v>
       </c>
+      <c r="AC246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -22706,6 +25666,18 @@
       <c r="AB247" t="n">
         <v>7</v>
       </c>
+      <c r="AC247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -22796,6 +25768,18 @@
       <c r="AB248" t="n">
         <v>7</v>
       </c>
+      <c r="AC248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -22886,6 +25870,18 @@
       <c r="AB249" t="n">
         <v>0</v>
       </c>
+      <c r="AC249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -22976,6 +25972,18 @@
       <c r="AB250" t="n">
         <v>7</v>
       </c>
+      <c r="AC250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -23066,6 +26074,18 @@
       <c r="AB251" t="n">
         <v>7</v>
       </c>
+      <c r="AC251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -23156,6 +26176,18 @@
       <c r="AB252" t="n">
         <v>7</v>
       </c>
+      <c r="AC252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -23246,6 +26278,18 @@
       <c r="AB253" t="n">
         <v>0</v>
       </c>
+      <c r="AC253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -23336,6 +26380,18 @@
       <c r="AB254" t="n">
         <v>0</v>
       </c>
+      <c r="AC254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -23426,6 +26482,18 @@
       <c r="AB255" t="n">
         <v>0</v>
       </c>
+      <c r="AC255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -23516,6 +26584,18 @@
       <c r="AB256" t="n">
         <v>7</v>
       </c>
+      <c r="AC256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -23606,6 +26686,18 @@
       <c r="AB257" t="n">
         <v>7</v>
       </c>
+      <c r="AC257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -23696,6 +26788,18 @@
       <c r="AB258" t="n">
         <v>7</v>
       </c>
+      <c r="AC258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -23786,6 +26890,18 @@
       <c r="AB259" t="n">
         <v>0</v>
       </c>
+      <c r="AC259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -23876,6 +26992,18 @@
       <c r="AB260" t="n">
         <v>0</v>
       </c>
+      <c r="AC260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -23966,6 +27094,18 @@
       <c r="AB261" t="n">
         <v>0</v>
       </c>
+      <c r="AC261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -24056,6 +27196,18 @@
       <c r="AB262" t="n">
         <v>7</v>
       </c>
+      <c r="AC262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -24146,6 +27298,18 @@
       <c r="AB263" t="n">
         <v>0</v>
       </c>
+      <c r="AC263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -24236,6 +27400,18 @@
       <c r="AB264" t="n">
         <v>7</v>
       </c>
+      <c r="AC264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -24326,6 +27502,18 @@
       <c r="AB265" t="n">
         <v>0</v>
       </c>
+      <c r="AC265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -24416,6 +27604,18 @@
       <c r="AB266" t="n">
         <v>0</v>
       </c>
+      <c r="AC266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -24506,6 +27706,18 @@
       <c r="AB267" t="n">
         <v>7</v>
       </c>
+      <c r="AC267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -24596,6 +27808,18 @@
       <c r="AB268" t="n">
         <v>0</v>
       </c>
+      <c r="AC268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -24686,6 +27910,18 @@
       <c r="AB269" t="n">
         <v>0</v>
       </c>
+      <c r="AC269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -24776,6 +28012,18 @@
       <c r="AB270" t="n">
         <v>7</v>
       </c>
+      <c r="AC270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -24866,6 +28114,18 @@
       <c r="AB271" t="n">
         <v>0</v>
       </c>
+      <c r="AC271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -24956,6 +28216,18 @@
       <c r="AB272" t="n">
         <v>0</v>
       </c>
+      <c r="AC272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -25046,6 +28318,18 @@
       <c r="AB273" t="n">
         <v>0</v>
       </c>
+      <c r="AC273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -25136,6 +28420,18 @@
       <c r="AB274" t="n">
         <v>0</v>
       </c>
+      <c r="AC274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -25226,6 +28522,18 @@
       <c r="AB275" t="n">
         <v>0</v>
       </c>
+      <c r="AC275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -25316,6 +28624,18 @@
       <c r="AB276" t="n">
         <v>0</v>
       </c>
+      <c r="AC276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -25406,6 +28726,18 @@
       <c r="AB277" t="n">
         <v>0</v>
       </c>
+      <c r="AC277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -25496,6 +28828,18 @@
       <c r="AB278" t="n">
         <v>7</v>
       </c>
+      <c r="AC278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -25586,6 +28930,18 @@
       <c r="AB279" t="n">
         <v>0</v>
       </c>
+      <c r="AC279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -25676,6 +29032,18 @@
       <c r="AB280" t="n">
         <v>0</v>
       </c>
+      <c r="AC280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -25766,6 +29134,18 @@
       <c r="AB281" t="n">
         <v>0</v>
       </c>
+      <c r="AC281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -25856,6 +29236,18 @@
       <c r="AB282" t="n">
         <v>0</v>
       </c>
+      <c r="AC282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -25946,6 +29338,18 @@
       <c r="AB283" t="n">
         <v>7</v>
       </c>
+      <c r="AC283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -26036,6 +29440,18 @@
       <c r="AB284" t="n">
         <v>0</v>
       </c>
+      <c r="AC284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -26126,6 +29542,18 @@
       <c r="AB285" t="n">
         <v>0</v>
       </c>
+      <c r="AC285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -26216,6 +29644,18 @@
       <c r="AB286" t="n">
         <v>7</v>
       </c>
+      <c r="AC286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -26306,6 +29746,18 @@
       <c r="AB287" t="n">
         <v>0</v>
       </c>
+      <c r="AC287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -26396,6 +29848,18 @@
       <c r="AB288" t="n">
         <v>0</v>
       </c>
+      <c r="AC288" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE288" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -26486,6 +29950,18 @@
       <c r="AB289" t="n">
         <v>7</v>
       </c>
+      <c r="AC289" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -26576,6 +30052,18 @@
       <c r="AB290" t="n">
         <v>7</v>
       </c>
+      <c r="AC290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -26666,6 +30154,18 @@
       <c r="AB291" t="n">
         <v>0</v>
       </c>
+      <c r="AC291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -26756,6 +30256,18 @@
       <c r="AB292" t="n">
         <v>7</v>
       </c>
+      <c r="AC292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -26846,6 +30358,18 @@
       <c r="AB293" t="n">
         <v>7</v>
       </c>
+      <c r="AC293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -26936,6 +30460,18 @@
       <c r="AB294" t="n">
         <v>7</v>
       </c>
+      <c r="AC294" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -27026,6 +30562,18 @@
       <c r="AB295" t="n">
         <v>0</v>
       </c>
+      <c r="AC295" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -27116,6 +30664,18 @@
       <c r="AB296" t="n">
         <v>0</v>
       </c>
+      <c r="AC296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -27206,6 +30766,18 @@
       <c r="AB297" t="n">
         <v>0</v>
       </c>
+      <c r="AC297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -27296,6 +30868,18 @@
       <c r="AB298" t="n">
         <v>0</v>
       </c>
+      <c r="AC298" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE298" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -27386,6 +30970,18 @@
       <c r="AB299" t="n">
         <v>0</v>
       </c>
+      <c r="AC299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -27476,6 +31072,18 @@
       <c r="AB300" t="n">
         <v>7</v>
       </c>
+      <c r="AC300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -27566,6 +31174,18 @@
       <c r="AB301" t="n">
         <v>0</v>
       </c>
+      <c r="AC301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -27656,6 +31276,18 @@
       <c r="AB302" t="n">
         <v>7</v>
       </c>
+      <c r="AC302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD302" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE302" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF302" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -27746,6 +31378,18 @@
       <c r="AB303" t="n">
         <v>0</v>
       </c>
+      <c r="AC303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -27836,6 +31480,18 @@
       <c r="AB304" t="n">
         <v>0</v>
       </c>
+      <c r="AC304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -27926,6 +31582,18 @@
       <c r="AB305" t="n">
         <v>0</v>
       </c>
+      <c r="AC305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -28016,6 +31684,18 @@
       <c r="AB306" t="n">
         <v>0</v>
       </c>
+      <c r="AC306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -28106,6 +31786,18 @@
       <c r="AB307" t="n">
         <v>0</v>
       </c>
+      <c r="AC307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -28196,6 +31888,18 @@
       <c r="AB308" t="n">
         <v>0</v>
       </c>
+      <c r="AC308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -28286,6 +31990,18 @@
       <c r="AB309" t="n">
         <v>0</v>
       </c>
+      <c r="AC309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -28376,6 +32092,18 @@
       <c r="AB310" t="n">
         <v>0</v>
       </c>
+      <c r="AC310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -28466,6 +32194,18 @@
       <c r="AB311" t="n">
         <v>7</v>
       </c>
+      <c r="AC311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF311" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -28556,6 +32296,18 @@
       <c r="AB312" t="n">
         <v>0</v>
       </c>
+      <c r="AC312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -28646,6 +32398,18 @@
       <c r="AB313" t="n">
         <v>7</v>
       </c>
+      <c r="AC313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -28736,6 +32500,18 @@
       <c r="AB314" t="n">
         <v>0</v>
       </c>
+      <c r="AC314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -28826,6 +32602,18 @@
       <c r="AB315" t="n">
         <v>0</v>
       </c>
+      <c r="AC315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -28916,6 +32704,18 @@
       <c r="AB316" t="n">
         <v>0</v>
       </c>
+      <c r="AC316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -29006,6 +32806,18 @@
       <c r="AB317" t="n">
         <v>0</v>
       </c>
+      <c r="AC317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -29096,6 +32908,18 @@
       <c r="AB318" t="n">
         <v>0</v>
       </c>
+      <c r="AC318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -29186,6 +33010,18 @@
       <c r="AB319" t="n">
         <v>0</v>
       </c>
+      <c r="AC319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -29276,6 +33112,18 @@
       <c r="AB320" t="n">
         <v>0</v>
       </c>
+      <c r="AC320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD320" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE320" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF320" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -29366,6 +33214,18 @@
       <c r="AB321" t="n">
         <v>7</v>
       </c>
+      <c r="AC321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD321" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE321" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF321" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -29456,6 +33316,18 @@
       <c r="AB322" t="n">
         <v>0</v>
       </c>
+      <c r="AC322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -29546,6 +33418,18 @@
       <c r="AB323" t="n">
         <v>0</v>
       </c>
+      <c r="AC323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -29636,6 +33520,18 @@
       <c r="AB324" t="n">
         <v>0</v>
       </c>
+      <c r="AC324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -29726,6 +33622,18 @@
       <c r="AB325" t="n">
         <v>0</v>
       </c>
+      <c r="AC325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -29816,6 +33724,18 @@
       <c r="AB326" t="n">
         <v>7</v>
       </c>
+      <c r="AC326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD326" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE326" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF326" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -29906,6 +33826,18 @@
       <c r="AB327" t="n">
         <v>0</v>
       </c>
+      <c r="AC327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -29996,6 +33928,18 @@
       <c r="AB328" t="n">
         <v>7</v>
       </c>
+      <c r="AC328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -30086,6 +34030,18 @@
       <c r="AB329" t="n">
         <v>7</v>
       </c>
+      <c r="AC329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -30176,6 +34132,18 @@
       <c r="AB330" t="n">
         <v>0</v>
       </c>
+      <c r="AC330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -30266,6 +34234,18 @@
       <c r="AB331" t="n">
         <v>0</v>
       </c>
+      <c r="AC331" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD331" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE331" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -30356,6 +34336,18 @@
       <c r="AB332" t="n">
         <v>0</v>
       </c>
+      <c r="AC332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -30446,6 +34438,18 @@
       <c r="AB333" t="n">
         <v>7</v>
       </c>
+      <c r="AC333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -30536,6 +34540,18 @@
       <c r="AB334" t="n">
         <v>0</v>
       </c>
+      <c r="AC334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -30626,6 +34642,18 @@
       <c r="AB335" t="n">
         <v>0</v>
       </c>
+      <c r="AC335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -30716,6 +34744,18 @@
       <c r="AB336" t="n">
         <v>0</v>
       </c>
+      <c r="AC336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -30806,6 +34846,18 @@
       <c r="AB337" t="n">
         <v>7</v>
       </c>
+      <c r="AC337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -30896,6 +34948,18 @@
       <c r="AB338" t="n">
         <v>0</v>
       </c>
+      <c r="AC338" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD338" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE338" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF338" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -30986,6 +35050,18 @@
       <c r="AB339" t="n">
         <v>0</v>
       </c>
+      <c r="AC339" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD339" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE339" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -31076,6 +35152,18 @@
       <c r="AB340" t="n">
         <v>0</v>
       </c>
+      <c r="AC340" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD340" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE340" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -31166,6 +35254,18 @@
       <c r="AB341" t="n">
         <v>7</v>
       </c>
+      <c r="AC341" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD341" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE341" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -31256,6 +35356,18 @@
       <c r="AB342" t="n">
         <v>7</v>
       </c>
+      <c r="AC342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -31346,6 +35458,18 @@
       <c r="AB343" t="n">
         <v>7</v>
       </c>
+      <c r="AC343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -31434,6 +35558,18 @@
         <v>0</v>
       </c>
       <c r="AB344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF344" t="n">
         <v>0</v>
       </c>
     </row>

--- a/SEM2-HOURS.xlsx
+++ b/SEM2-HOURS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF344"/>
+  <dimension ref="A1:AH344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,6 +594,16 @@
           <t>Out Campus Planatation_Drive_Seva_Utsav</t>
         </is>
       </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Donation Drive Help Seva Utsav</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Donation Drive Seva Utsav</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -688,6 +698,12 @@
       <c r="AF2" t="n">
         <v>4</v>
       </c>
+      <c r="AG2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -790,6 +806,12 @@
       <c r="AF3" t="n">
         <v>4</v>
       </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -892,6 +914,12 @@
       <c r="AF4" t="n">
         <v>0</v>
       </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -992,6 +1020,12 @@
         <v>0</v>
       </c>
       <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,6 +1130,12 @@
       <c r="AF6" t="n">
         <v>0</v>
       </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1198,6 +1238,12 @@
       <c r="AF7" t="n">
         <v>0</v>
       </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1300,6 +1346,12 @@
       <c r="AF8" t="n">
         <v>0</v>
       </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1402,6 +1454,12 @@
       <c r="AF9" t="n">
         <v>0</v>
       </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1504,6 +1562,12 @@
       <c r="AF10" t="n">
         <v>4</v>
       </c>
+      <c r="AG10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1606,6 +1670,12 @@
       <c r="AF11" t="n">
         <v>0</v>
       </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1708,6 +1778,12 @@
       <c r="AF12" t="n">
         <v>0</v>
       </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1810,6 +1886,12 @@
       <c r="AF13" t="n">
         <v>0</v>
       </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1912,6 +1994,12 @@
       <c r="AF14" t="n">
         <v>4</v>
       </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2014,6 +2102,12 @@
       <c r="AF15" t="n">
         <v>0</v>
       </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2116,6 +2210,12 @@
       <c r="AF16" t="n">
         <v>0</v>
       </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2218,6 +2318,12 @@
       <c r="AF17" t="n">
         <v>4</v>
       </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2320,6 +2426,12 @@
       <c r="AF18" t="n">
         <v>0</v>
       </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2422,6 +2534,12 @@
       <c r="AF19" t="n">
         <v>0</v>
       </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2524,6 +2642,12 @@
       <c r="AF20" t="n">
         <v>0</v>
       </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2626,6 +2750,12 @@
       <c r="AF21" t="n">
         <v>0</v>
       </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2728,6 +2858,12 @@
       <c r="AF22" t="n">
         <v>0</v>
       </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2830,6 +2966,12 @@
       <c r="AF23" t="n">
         <v>0</v>
       </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2932,6 +3074,12 @@
       <c r="AF24" t="n">
         <v>0</v>
       </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3034,6 +3182,12 @@
       <c r="AF25" t="n">
         <v>0</v>
       </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3136,6 +3290,12 @@
       <c r="AF26" t="n">
         <v>0</v>
       </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3238,6 +3398,12 @@
       <c r="AF27" t="n">
         <v>0</v>
       </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3340,6 +3506,12 @@
       <c r="AF28" t="n">
         <v>0</v>
       </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3442,6 +3614,12 @@
       <c r="AF29" t="n">
         <v>0</v>
       </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3544,6 +3722,12 @@
       <c r="AF30" t="n">
         <v>0</v>
       </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3646,6 +3830,12 @@
       <c r="AF31" t="n">
         <v>0</v>
       </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3748,6 +3938,12 @@
       <c r="AF32" t="n">
         <v>0</v>
       </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3850,6 +4046,12 @@
       <c r="AF33" t="n">
         <v>0</v>
       </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3952,6 +4154,12 @@
       <c r="AF34" t="n">
         <v>0</v>
       </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4054,6 +4262,12 @@
       <c r="AF35" t="n">
         <v>0</v>
       </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4156,6 +4370,12 @@
       <c r="AF36" t="n">
         <v>0</v>
       </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4258,6 +4478,12 @@
       <c r="AF37" t="n">
         <v>0</v>
       </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4360,6 +4586,12 @@
       <c r="AF38" t="n">
         <v>0</v>
       </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4462,6 +4694,12 @@
       <c r="AF39" t="n">
         <v>4</v>
       </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4564,6 +4802,12 @@
       <c r="AF40" t="n">
         <v>0</v>
       </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4666,6 +4910,12 @@
       <c r="AF41" t="n">
         <v>0</v>
       </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4768,6 +5018,12 @@
       <c r="AF42" t="n">
         <v>0</v>
       </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4870,6 +5126,12 @@
       <c r="AF43" t="n">
         <v>0</v>
       </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4972,6 +5234,12 @@
       <c r="AF44" t="n">
         <v>0</v>
       </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5074,6 +5342,12 @@
       <c r="AF45" t="n">
         <v>0</v>
       </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5176,6 +5450,12 @@
       <c r="AF46" t="n">
         <v>0</v>
       </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5278,6 +5558,12 @@
       <c r="AF47" t="n">
         <v>4</v>
       </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5380,6 +5666,12 @@
       <c r="AF48" t="n">
         <v>0</v>
       </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5482,6 +5774,12 @@
       <c r="AF49" t="n">
         <v>0</v>
       </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5584,6 +5882,12 @@
       <c r="AF50" t="n">
         <v>4</v>
       </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5686,6 +5990,12 @@
       <c r="AF51" t="n">
         <v>0</v>
       </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5788,6 +6098,12 @@
       <c r="AF52" t="n">
         <v>0</v>
       </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5890,6 +6206,12 @@
       <c r="AF53" t="n">
         <v>0</v>
       </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5992,6 +6314,12 @@
       <c r="AF54" t="n">
         <v>0</v>
       </c>
+      <c r="AG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6094,6 +6422,12 @@
       <c r="AF55" t="n">
         <v>0</v>
       </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6196,6 +6530,12 @@
       <c r="AF56" t="n">
         <v>0</v>
       </c>
+      <c r="AG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6298,6 +6638,12 @@
       <c r="AF57" t="n">
         <v>0</v>
       </c>
+      <c r="AG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6400,6 +6746,12 @@
       <c r="AF58" t="n">
         <v>4</v>
       </c>
+      <c r="AG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6502,6 +6854,12 @@
       <c r="AF59" t="n">
         <v>0</v>
       </c>
+      <c r="AG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6604,6 +6962,12 @@
       <c r="AF60" t="n">
         <v>0</v>
       </c>
+      <c r="AG60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6706,6 +7070,12 @@
       <c r="AF61" t="n">
         <v>0</v>
       </c>
+      <c r="AG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6808,6 +7178,12 @@
       <c r="AF62" t="n">
         <v>0</v>
       </c>
+      <c r="AG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6910,6 +7286,12 @@
       <c r="AF63" t="n">
         <v>0</v>
       </c>
+      <c r="AG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7012,6 +7394,12 @@
       <c r="AF64" t="n">
         <v>0</v>
       </c>
+      <c r="AG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7114,6 +7502,12 @@
       <c r="AF65" t="n">
         <v>0</v>
       </c>
+      <c r="AG65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7216,6 +7610,12 @@
       <c r="AF66" t="n">
         <v>0</v>
       </c>
+      <c r="AG66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7318,6 +7718,12 @@
       <c r="AF67" t="n">
         <v>0</v>
       </c>
+      <c r="AG67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -7420,6 +7826,12 @@
       <c r="AF68" t="n">
         <v>0</v>
       </c>
+      <c r="AG68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -7522,6 +7934,12 @@
       <c r="AF69" t="n">
         <v>0</v>
       </c>
+      <c r="AG69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -7624,6 +8042,12 @@
       <c r="AF70" t="n">
         <v>0</v>
       </c>
+      <c r="AG70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -7726,6 +8150,12 @@
       <c r="AF71" t="n">
         <v>0</v>
       </c>
+      <c r="AG71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -7828,6 +8258,12 @@
       <c r="AF72" t="n">
         <v>0</v>
       </c>
+      <c r="AG72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -7930,6 +8366,12 @@
       <c r="AF73" t="n">
         <v>0</v>
       </c>
+      <c r="AG73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -8032,6 +8474,12 @@
       <c r="AF74" t="n">
         <v>0</v>
       </c>
+      <c r="AG74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -8134,6 +8582,12 @@
       <c r="AF75" t="n">
         <v>0</v>
       </c>
+      <c r="AG75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -8236,6 +8690,12 @@
       <c r="AF76" t="n">
         <v>0</v>
       </c>
+      <c r="AG76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -8338,6 +8798,12 @@
       <c r="AF77" t="n">
         <v>0</v>
       </c>
+      <c r="AG77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -8440,6 +8906,12 @@
       <c r="AF78" t="n">
         <v>0</v>
       </c>
+      <c r="AG78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -8542,6 +9014,12 @@
       <c r="AF79" t="n">
         <v>0</v>
       </c>
+      <c r="AG79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -8644,6 +9122,12 @@
       <c r="AF80" t="n">
         <v>0</v>
       </c>
+      <c r="AG80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -8746,6 +9230,12 @@
       <c r="AF81" t="n">
         <v>0</v>
       </c>
+      <c r="AG81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -8848,6 +9338,12 @@
       <c r="AF82" t="n">
         <v>0</v>
       </c>
+      <c r="AG82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -8950,6 +9446,12 @@
       <c r="AF83" t="n">
         <v>0</v>
       </c>
+      <c r="AG83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -9052,6 +9554,12 @@
       <c r="AF84" t="n">
         <v>0</v>
       </c>
+      <c r="AG84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -9154,6 +9662,12 @@
       <c r="AF85" t="n">
         <v>0</v>
       </c>
+      <c r="AG85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -9256,6 +9770,12 @@
       <c r="AF86" t="n">
         <v>0</v>
       </c>
+      <c r="AG86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -9358,6 +9878,12 @@
       <c r="AF87" t="n">
         <v>0</v>
       </c>
+      <c r="AG87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -9460,6 +9986,12 @@
       <c r="AF88" t="n">
         <v>0</v>
       </c>
+      <c r="AG88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -9562,6 +10094,12 @@
       <c r="AF89" t="n">
         <v>0</v>
       </c>
+      <c r="AG89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -9664,6 +10202,12 @@
       <c r="AF90" t="n">
         <v>0</v>
       </c>
+      <c r="AG90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -9766,6 +10310,12 @@
       <c r="AF91" t="n">
         <v>0</v>
       </c>
+      <c r="AG91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -9868,6 +10418,12 @@
       <c r="AF92" t="n">
         <v>0</v>
       </c>
+      <c r="AG92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -9970,6 +10526,12 @@
       <c r="AF93" t="n">
         <v>0</v>
       </c>
+      <c r="AG93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -10072,6 +10634,12 @@
       <c r="AF94" t="n">
         <v>0</v>
       </c>
+      <c r="AG94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -10174,6 +10742,12 @@
       <c r="AF95" t="n">
         <v>0</v>
       </c>
+      <c r="AG95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -10276,6 +10850,12 @@
       <c r="AF96" t="n">
         <v>4</v>
       </c>
+      <c r="AG96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -10378,6 +10958,12 @@
       <c r="AF97" t="n">
         <v>4</v>
       </c>
+      <c r="AG97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -10480,6 +11066,12 @@
       <c r="AF98" t="n">
         <v>0</v>
       </c>
+      <c r="AG98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -10582,6 +11174,12 @@
       <c r="AF99" t="n">
         <v>0</v>
       </c>
+      <c r="AG99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -10684,6 +11282,12 @@
       <c r="AF100" t="n">
         <v>4</v>
       </c>
+      <c r="AG100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -10786,6 +11390,12 @@
       <c r="AF101" t="n">
         <v>0</v>
       </c>
+      <c r="AG101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -10888,6 +11498,12 @@
       <c r="AF102" t="n">
         <v>0</v>
       </c>
+      <c r="AG102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -10990,6 +11606,12 @@
       <c r="AF103" t="n">
         <v>0</v>
       </c>
+      <c r="AG103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -11092,6 +11714,12 @@
       <c r="AF104" t="n">
         <v>0</v>
       </c>
+      <c r="AG104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -11194,6 +11822,12 @@
       <c r="AF105" t="n">
         <v>0</v>
       </c>
+      <c r="AG105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -11296,6 +11930,12 @@
       <c r="AF106" t="n">
         <v>0</v>
       </c>
+      <c r="AG106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -11398,6 +12038,12 @@
       <c r="AF107" t="n">
         <v>0</v>
       </c>
+      <c r="AG107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -11500,6 +12146,12 @@
       <c r="AF108" t="n">
         <v>0</v>
       </c>
+      <c r="AG108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -11602,6 +12254,12 @@
       <c r="AF109" t="n">
         <v>4</v>
       </c>
+      <c r="AG109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -11704,6 +12362,12 @@
       <c r="AF110" t="n">
         <v>0</v>
       </c>
+      <c r="AG110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -11806,6 +12470,12 @@
       <c r="AF111" t="n">
         <v>0</v>
       </c>
+      <c r="AG111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -11908,6 +12578,12 @@
       <c r="AF112" t="n">
         <v>0</v>
       </c>
+      <c r="AG112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -12010,6 +12686,12 @@
       <c r="AF113" t="n">
         <v>0</v>
       </c>
+      <c r="AG113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -12112,6 +12794,12 @@
       <c r="AF114" t="n">
         <v>0</v>
       </c>
+      <c r="AG114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -12214,6 +12902,12 @@
       <c r="AF115" t="n">
         <v>0</v>
       </c>
+      <c r="AG115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -12316,6 +13010,12 @@
       <c r="AF116" t="n">
         <v>0</v>
       </c>
+      <c r="AG116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -12418,6 +13118,12 @@
       <c r="AF117" t="n">
         <v>0</v>
       </c>
+      <c r="AG117" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -12520,6 +13226,12 @@
       <c r="AF118" t="n">
         <v>0</v>
       </c>
+      <c r="AG118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -12622,6 +13334,12 @@
       <c r="AF119" t="n">
         <v>0</v>
       </c>
+      <c r="AG119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -12724,6 +13442,12 @@
       <c r="AF120" t="n">
         <v>0</v>
       </c>
+      <c r="AG120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -12826,6 +13550,12 @@
       <c r="AF121" t="n">
         <v>0</v>
       </c>
+      <c r="AG121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -12928,6 +13658,12 @@
       <c r="AF122" t="n">
         <v>0</v>
       </c>
+      <c r="AG122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -13030,6 +13766,12 @@
       <c r="AF123" t="n">
         <v>0</v>
       </c>
+      <c r="AG123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -13132,6 +13874,12 @@
       <c r="AF124" t="n">
         <v>0</v>
       </c>
+      <c r="AG124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -13234,6 +13982,12 @@
       <c r="AF125" t="n">
         <v>0</v>
       </c>
+      <c r="AG125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -13336,6 +14090,12 @@
       <c r="AF126" t="n">
         <v>0</v>
       </c>
+      <c r="AG126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -13438,6 +14198,12 @@
       <c r="AF127" t="n">
         <v>0</v>
       </c>
+      <c r="AG127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -13540,6 +14306,12 @@
       <c r="AF128" t="n">
         <v>0</v>
       </c>
+      <c r="AG128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -13642,6 +14414,12 @@
       <c r="AF129" t="n">
         <v>4</v>
       </c>
+      <c r="AG129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -13744,6 +14522,12 @@
       <c r="AF130" t="n">
         <v>0</v>
       </c>
+      <c r="AG130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -13846,6 +14630,12 @@
       <c r="AF131" t="n">
         <v>0</v>
       </c>
+      <c r="AG131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -13948,6 +14738,12 @@
       <c r="AF132" t="n">
         <v>0</v>
       </c>
+      <c r="AG132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -14050,6 +14846,12 @@
       <c r="AF133" t="n">
         <v>0</v>
       </c>
+      <c r="AG133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -14152,6 +14954,12 @@
       <c r="AF134" t="n">
         <v>0</v>
       </c>
+      <c r="AG134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -14254,6 +15062,12 @@
       <c r="AF135" t="n">
         <v>0</v>
       </c>
+      <c r="AG135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -14356,6 +15170,12 @@
       <c r="AF136" t="n">
         <v>0</v>
       </c>
+      <c r="AG136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -14458,6 +15278,12 @@
       <c r="AF137" t="n">
         <v>0</v>
       </c>
+      <c r="AG137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -14560,6 +15386,12 @@
       <c r="AF138" t="n">
         <v>0</v>
       </c>
+      <c r="AG138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -14662,6 +15494,12 @@
       <c r="AF139" t="n">
         <v>4</v>
       </c>
+      <c r="AG139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -14764,6 +15602,12 @@
       <c r="AF140" t="n">
         <v>0</v>
       </c>
+      <c r="AG140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -14866,6 +15710,12 @@
       <c r="AF141" t="n">
         <v>0</v>
       </c>
+      <c r="AG141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -14968,6 +15818,12 @@
       <c r="AF142" t="n">
         <v>0</v>
       </c>
+      <c r="AG142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -15070,6 +15926,12 @@
       <c r="AF143" t="n">
         <v>0</v>
       </c>
+      <c r="AG143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -15172,6 +16034,12 @@
       <c r="AF144" t="n">
         <v>0</v>
       </c>
+      <c r="AG144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -15274,6 +16142,12 @@
       <c r="AF145" t="n">
         <v>0</v>
       </c>
+      <c r="AG145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -15376,6 +16250,12 @@
       <c r="AF146" t="n">
         <v>0</v>
       </c>
+      <c r="AG146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -15478,6 +16358,12 @@
       <c r="AF147" t="n">
         <v>4</v>
       </c>
+      <c r="AG147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -15580,6 +16466,12 @@
       <c r="AF148" t="n">
         <v>0</v>
       </c>
+      <c r="AG148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -15682,6 +16574,12 @@
       <c r="AF149" t="n">
         <v>0</v>
       </c>
+      <c r="AG149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -15784,6 +16682,12 @@
       <c r="AF150" t="n">
         <v>0</v>
       </c>
+      <c r="AG150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -15886,6 +16790,12 @@
       <c r="AF151" t="n">
         <v>0</v>
       </c>
+      <c r="AG151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -15988,6 +16898,12 @@
       <c r="AF152" t="n">
         <v>0</v>
       </c>
+      <c r="AG152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -16090,6 +17006,12 @@
       <c r="AF153" t="n">
         <v>0</v>
       </c>
+      <c r="AG153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -16192,6 +17114,12 @@
       <c r="AF154" t="n">
         <v>0</v>
       </c>
+      <c r="AG154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -16294,6 +17222,12 @@
       <c r="AF155" t="n">
         <v>0</v>
       </c>
+      <c r="AG155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -16396,6 +17330,12 @@
       <c r="AF156" t="n">
         <v>0</v>
       </c>
+      <c r="AG156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -16498,6 +17438,12 @@
       <c r="AF157" t="n">
         <v>0</v>
       </c>
+      <c r="AG157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -16600,6 +17546,12 @@
       <c r="AF158" t="n">
         <v>0</v>
       </c>
+      <c r="AG158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -16702,6 +17654,12 @@
       <c r="AF159" t="n">
         <v>0</v>
       </c>
+      <c r="AG159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -16804,6 +17762,12 @@
       <c r="AF160" t="n">
         <v>0</v>
       </c>
+      <c r="AG160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -16906,6 +17870,12 @@
       <c r="AF161" t="n">
         <v>0</v>
       </c>
+      <c r="AG161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -17008,6 +17978,12 @@
       <c r="AF162" t="n">
         <v>0</v>
       </c>
+      <c r="AG162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -17110,6 +18086,12 @@
       <c r="AF163" t="n">
         <v>0</v>
       </c>
+      <c r="AG163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -17212,6 +18194,12 @@
       <c r="AF164" t="n">
         <v>0</v>
       </c>
+      <c r="AG164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -17314,6 +18302,12 @@
       <c r="AF165" t="n">
         <v>0</v>
       </c>
+      <c r="AG165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -17416,6 +18410,12 @@
       <c r="AF166" t="n">
         <v>0</v>
       </c>
+      <c r="AG166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -17518,6 +18518,12 @@
       <c r="AF167" t="n">
         <v>0</v>
       </c>
+      <c r="AG167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -17620,6 +18626,12 @@
       <c r="AF168" t="n">
         <v>0</v>
       </c>
+      <c r="AG168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -17722,6 +18734,12 @@
       <c r="AF169" t="n">
         <v>0</v>
       </c>
+      <c r="AG169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -17824,6 +18842,12 @@
       <c r="AF170" t="n">
         <v>0</v>
       </c>
+      <c r="AG170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -17926,6 +18950,12 @@
       <c r="AF171" t="n">
         <v>0</v>
       </c>
+      <c r="AG171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -18028,6 +19058,12 @@
       <c r="AF172" t="n">
         <v>0</v>
       </c>
+      <c r="AG172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -18130,6 +19166,12 @@
       <c r="AF173" t="n">
         <v>0</v>
       </c>
+      <c r="AG173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -18232,6 +19274,12 @@
       <c r="AF174" t="n">
         <v>0</v>
       </c>
+      <c r="AG174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -18334,6 +19382,12 @@
       <c r="AF175" t="n">
         <v>0</v>
       </c>
+      <c r="AG175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -18436,6 +19490,12 @@
       <c r="AF176" t="n">
         <v>0</v>
       </c>
+      <c r="AG176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -18538,6 +19598,12 @@
       <c r="AF177" t="n">
         <v>0</v>
       </c>
+      <c r="AG177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -18640,6 +19706,12 @@
       <c r="AF178" t="n">
         <v>4</v>
       </c>
+      <c r="AG178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -18742,6 +19814,12 @@
       <c r="AF179" t="n">
         <v>0</v>
       </c>
+      <c r="AG179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -18844,6 +19922,12 @@
       <c r="AF180" t="n">
         <v>0</v>
       </c>
+      <c r="AG180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -18946,6 +20030,12 @@
       <c r="AF181" t="n">
         <v>4</v>
       </c>
+      <c r="AG181" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -19048,6 +20138,12 @@
       <c r="AF182" t="n">
         <v>0</v>
       </c>
+      <c r="AG182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -19150,6 +20246,12 @@
       <c r="AF183" t="n">
         <v>0</v>
       </c>
+      <c r="AG183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -19252,6 +20354,12 @@
       <c r="AF184" t="n">
         <v>0</v>
       </c>
+      <c r="AG184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -19354,6 +20462,12 @@
       <c r="AF185" t="n">
         <v>0</v>
       </c>
+      <c r="AG185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -19456,6 +20570,12 @@
       <c r="AF186" t="n">
         <v>0</v>
       </c>
+      <c r="AG186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -19558,6 +20678,12 @@
       <c r="AF187" t="n">
         <v>0</v>
       </c>
+      <c r="AG187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -19660,6 +20786,12 @@
       <c r="AF188" t="n">
         <v>0</v>
       </c>
+      <c r="AG188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -19762,6 +20894,12 @@
       <c r="AF189" t="n">
         <v>0</v>
       </c>
+      <c r="AG189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -19864,6 +21002,12 @@
       <c r="AF190" t="n">
         <v>0</v>
       </c>
+      <c r="AG190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -19966,6 +21110,12 @@
       <c r="AF191" t="n">
         <v>0</v>
       </c>
+      <c r="AG191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -20068,6 +21218,12 @@
       <c r="AF192" t="n">
         <v>0</v>
       </c>
+      <c r="AG192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -20170,6 +21326,12 @@
       <c r="AF193" t="n">
         <v>0</v>
       </c>
+      <c r="AG193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -20272,6 +21434,12 @@
       <c r="AF194" t="n">
         <v>0</v>
       </c>
+      <c r="AG194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -20374,6 +21542,12 @@
       <c r="AF195" t="n">
         <v>0</v>
       </c>
+      <c r="AG195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -20476,6 +21650,12 @@
       <c r="AF196" t="n">
         <v>0</v>
       </c>
+      <c r="AG196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -20578,6 +21758,12 @@
       <c r="AF197" t="n">
         <v>0</v>
       </c>
+      <c r="AG197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -20680,6 +21866,12 @@
       <c r="AF198" t="n">
         <v>0</v>
       </c>
+      <c r="AG198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -20782,6 +21974,12 @@
       <c r="AF199" t="n">
         <v>0</v>
       </c>
+      <c r="AG199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -20884,6 +22082,12 @@
       <c r="AF200" t="n">
         <v>4</v>
       </c>
+      <c r="AG200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -20986,6 +22190,12 @@
       <c r="AF201" t="n">
         <v>0</v>
       </c>
+      <c r="AG201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -21088,6 +22298,12 @@
       <c r="AF202" t="n">
         <v>0</v>
       </c>
+      <c r="AG202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -21190,6 +22406,12 @@
       <c r="AF203" t="n">
         <v>4</v>
       </c>
+      <c r="AG203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -21292,6 +22514,12 @@
       <c r="AF204" t="n">
         <v>0</v>
       </c>
+      <c r="AG204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -21394,6 +22622,12 @@
       <c r="AF205" t="n">
         <v>0</v>
       </c>
+      <c r="AG205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -21496,6 +22730,12 @@
       <c r="AF206" t="n">
         <v>0</v>
       </c>
+      <c r="AG206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -21598,6 +22838,12 @@
       <c r="AF207" t="n">
         <v>4</v>
       </c>
+      <c r="AG207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -21700,6 +22946,12 @@
       <c r="AF208" t="n">
         <v>0</v>
       </c>
+      <c r="AG208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -21802,6 +23054,12 @@
       <c r="AF209" t="n">
         <v>0</v>
       </c>
+      <c r="AG209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -21904,6 +23162,12 @@
       <c r="AF210" t="n">
         <v>0</v>
       </c>
+      <c r="AG210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -22006,6 +23270,12 @@
       <c r="AF211" t="n">
         <v>0</v>
       </c>
+      <c r="AG211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -22108,6 +23378,12 @@
       <c r="AF212" t="n">
         <v>0</v>
       </c>
+      <c r="AG212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -22210,6 +23486,12 @@
       <c r="AF213" t="n">
         <v>0</v>
       </c>
+      <c r="AG213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -22312,6 +23594,12 @@
       <c r="AF214" t="n">
         <v>0</v>
       </c>
+      <c r="AG214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -22414,6 +23702,12 @@
       <c r="AF215" t="n">
         <v>4</v>
       </c>
+      <c r="AG215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -22516,6 +23810,12 @@
       <c r="AF216" t="n">
         <v>0</v>
       </c>
+      <c r="AG216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -22618,6 +23918,12 @@
       <c r="AF217" t="n">
         <v>0</v>
       </c>
+      <c r="AG217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -22720,6 +24026,12 @@
       <c r="AF218" t="n">
         <v>0</v>
       </c>
+      <c r="AG218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -22822,6 +24134,12 @@
       <c r="AF219" t="n">
         <v>0</v>
       </c>
+      <c r="AG219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -22924,6 +24242,12 @@
       <c r="AF220" t="n">
         <v>0</v>
       </c>
+      <c r="AG220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -23026,6 +24350,12 @@
       <c r="AF221" t="n">
         <v>0</v>
       </c>
+      <c r="AG221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -23128,6 +24458,12 @@
       <c r="AF222" t="n">
         <v>0</v>
       </c>
+      <c r="AG222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -23230,6 +24566,12 @@
       <c r="AF223" t="n">
         <v>0</v>
       </c>
+      <c r="AG223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -23332,6 +24674,12 @@
       <c r="AF224" t="n">
         <v>4</v>
       </c>
+      <c r="AG224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -23434,6 +24782,12 @@
       <c r="AF225" t="n">
         <v>0</v>
       </c>
+      <c r="AG225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -23536,6 +24890,12 @@
       <c r="AF226" t="n">
         <v>0</v>
       </c>
+      <c r="AG226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -23638,6 +24998,12 @@
       <c r="AF227" t="n">
         <v>0</v>
       </c>
+      <c r="AG227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -23740,6 +25106,12 @@
       <c r="AF228" t="n">
         <v>0</v>
       </c>
+      <c r="AG228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -23842,6 +25214,12 @@
       <c r="AF229" t="n">
         <v>0</v>
       </c>
+      <c r="AG229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -23944,6 +25322,12 @@
       <c r="AF230" t="n">
         <v>0</v>
       </c>
+      <c r="AG230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -24046,6 +25430,12 @@
       <c r="AF231" t="n">
         <v>0</v>
       </c>
+      <c r="AG231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -24148,6 +25538,12 @@
       <c r="AF232" t="n">
         <v>0</v>
       </c>
+      <c r="AG232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -24250,6 +25646,12 @@
       <c r="AF233" t="n">
         <v>0</v>
       </c>
+      <c r="AG233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -24352,6 +25754,12 @@
       <c r="AF234" t="n">
         <v>0</v>
       </c>
+      <c r="AG234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -24454,6 +25862,12 @@
       <c r="AF235" t="n">
         <v>0</v>
       </c>
+      <c r="AG235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -24556,6 +25970,12 @@
       <c r="AF236" t="n">
         <v>0</v>
       </c>
+      <c r="AG236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -24658,6 +26078,12 @@
       <c r="AF237" t="n">
         <v>0</v>
       </c>
+      <c r="AG237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -24760,6 +26186,12 @@
       <c r="AF238" t="n">
         <v>0</v>
       </c>
+      <c r="AG238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -24862,6 +26294,12 @@
       <c r="AF239" t="n">
         <v>0</v>
       </c>
+      <c r="AG239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -24964,6 +26402,12 @@
       <c r="AF240" t="n">
         <v>0</v>
       </c>
+      <c r="AG240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -25066,6 +26510,12 @@
       <c r="AF241" t="n">
         <v>0</v>
       </c>
+      <c r="AG241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -25168,6 +26618,12 @@
       <c r="AF242" t="n">
         <v>0</v>
       </c>
+      <c r="AG242" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -25270,6 +26726,12 @@
       <c r="AF243" t="n">
         <v>0</v>
       </c>
+      <c r="AG243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -25372,6 +26834,12 @@
       <c r="AF244" t="n">
         <v>0</v>
       </c>
+      <c r="AG244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -25474,6 +26942,12 @@
       <c r="AF245" t="n">
         <v>0</v>
       </c>
+      <c r="AG245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -25576,6 +27050,12 @@
       <c r="AF246" t="n">
         <v>0</v>
       </c>
+      <c r="AG246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -25678,6 +27158,12 @@
       <c r="AF247" t="n">
         <v>0</v>
       </c>
+      <c r="AG247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -25780,6 +27266,12 @@
       <c r="AF248" t="n">
         <v>4</v>
       </c>
+      <c r="AG248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -25882,6 +27374,12 @@
       <c r="AF249" t="n">
         <v>0</v>
       </c>
+      <c r="AG249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -25984,6 +27482,12 @@
       <c r="AF250" t="n">
         <v>0</v>
       </c>
+      <c r="AG250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -26086,6 +27590,12 @@
       <c r="AF251" t="n">
         <v>0</v>
       </c>
+      <c r="AG251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -26188,6 +27698,12 @@
       <c r="AF252" t="n">
         <v>0</v>
       </c>
+      <c r="AG252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -26290,6 +27806,12 @@
       <c r="AF253" t="n">
         <v>0</v>
       </c>
+      <c r="AG253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -26392,6 +27914,12 @@
       <c r="AF254" t="n">
         <v>0</v>
       </c>
+      <c r="AG254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -26494,6 +28022,12 @@
       <c r="AF255" t="n">
         <v>4</v>
       </c>
+      <c r="AG255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -26596,6 +28130,12 @@
       <c r="AF256" t="n">
         <v>0</v>
       </c>
+      <c r="AG256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -26698,6 +28238,12 @@
       <c r="AF257" t="n">
         <v>0</v>
       </c>
+      <c r="AG257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -26800,6 +28346,12 @@
       <c r="AF258" t="n">
         <v>4</v>
       </c>
+      <c r="AG258" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -26902,6 +28454,12 @@
       <c r="AF259" t="n">
         <v>0</v>
       </c>
+      <c r="AG259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -27004,6 +28562,12 @@
       <c r="AF260" t="n">
         <v>0</v>
       </c>
+      <c r="AG260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -27106,6 +28670,12 @@
       <c r="AF261" t="n">
         <v>0</v>
       </c>
+      <c r="AG261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -27208,6 +28778,12 @@
       <c r="AF262" t="n">
         <v>0</v>
       </c>
+      <c r="AG262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -27310,6 +28886,12 @@
       <c r="AF263" t="n">
         <v>0</v>
       </c>
+      <c r="AG263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -27412,6 +28994,12 @@
       <c r="AF264" t="n">
         <v>0</v>
       </c>
+      <c r="AG264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -27514,6 +29102,12 @@
       <c r="AF265" t="n">
         <v>0</v>
       </c>
+      <c r="AG265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -27616,6 +29210,12 @@
       <c r="AF266" t="n">
         <v>0</v>
       </c>
+      <c r="AG266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -27718,6 +29318,12 @@
       <c r="AF267" t="n">
         <v>0</v>
       </c>
+      <c r="AG267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -27820,6 +29426,12 @@
       <c r="AF268" t="n">
         <v>0</v>
       </c>
+      <c r="AG268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -27922,6 +29534,12 @@
       <c r="AF269" t="n">
         <v>0</v>
       </c>
+      <c r="AG269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -28024,6 +29642,12 @@
       <c r="AF270" t="n">
         <v>0</v>
       </c>
+      <c r="AG270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -28126,6 +29750,12 @@
       <c r="AF271" t="n">
         <v>0</v>
       </c>
+      <c r="AG271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -28228,6 +29858,12 @@
       <c r="AF272" t="n">
         <v>0</v>
       </c>
+      <c r="AG272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -28330,6 +29966,12 @@
       <c r="AF273" t="n">
         <v>0</v>
       </c>
+      <c r="AG273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -28432,6 +30074,12 @@
       <c r="AF274" t="n">
         <v>0</v>
       </c>
+      <c r="AG274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -28534,6 +30182,12 @@
       <c r="AF275" t="n">
         <v>0</v>
       </c>
+      <c r="AG275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -28636,6 +30290,12 @@
       <c r="AF276" t="n">
         <v>0</v>
       </c>
+      <c r="AG276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -28738,6 +30398,12 @@
       <c r="AF277" t="n">
         <v>0</v>
       </c>
+      <c r="AG277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -28840,6 +30506,12 @@
       <c r="AF278" t="n">
         <v>0</v>
       </c>
+      <c r="AG278" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -28942,6 +30614,12 @@
       <c r="AF279" t="n">
         <v>4</v>
       </c>
+      <c r="AG279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -29044,6 +30722,12 @@
       <c r="AF280" t="n">
         <v>0</v>
       </c>
+      <c r="AG280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -29146,6 +30830,12 @@
       <c r="AF281" t="n">
         <v>0</v>
       </c>
+      <c r="AG281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -29248,6 +30938,12 @@
       <c r="AF282" t="n">
         <v>0</v>
       </c>
+      <c r="AG282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -29350,6 +31046,12 @@
       <c r="AF283" t="n">
         <v>0</v>
       </c>
+      <c r="AG283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -29452,6 +31154,12 @@
       <c r="AF284" t="n">
         <v>0</v>
       </c>
+      <c r="AG284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -29554,6 +31262,12 @@
       <c r="AF285" t="n">
         <v>0</v>
       </c>
+      <c r="AG285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -29656,6 +31370,12 @@
       <c r="AF286" t="n">
         <v>4</v>
       </c>
+      <c r="AG286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -29758,6 +31478,12 @@
       <c r="AF287" t="n">
         <v>0</v>
       </c>
+      <c r="AG287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -29860,6 +31586,12 @@
       <c r="AF288" t="n">
         <v>4</v>
       </c>
+      <c r="AG288" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -29962,6 +31694,12 @@
       <c r="AF289" t="n">
         <v>0</v>
       </c>
+      <c r="AG289" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -30064,6 +31802,12 @@
       <c r="AF290" t="n">
         <v>0</v>
       </c>
+      <c r="AG290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -30166,6 +31910,12 @@
       <c r="AF291" t="n">
         <v>0</v>
       </c>
+      <c r="AG291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -30268,6 +32018,12 @@
       <c r="AF292" t="n">
         <v>0</v>
       </c>
+      <c r="AG292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -30370,6 +32126,12 @@
       <c r="AF293" t="n">
         <v>0</v>
       </c>
+      <c r="AG293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -30472,6 +32234,12 @@
       <c r="AF294" t="n">
         <v>0</v>
       </c>
+      <c r="AG294" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -30574,6 +32342,12 @@
       <c r="AF295" t="n">
         <v>0</v>
       </c>
+      <c r="AG295" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -30676,6 +32450,12 @@
       <c r="AF296" t="n">
         <v>0</v>
       </c>
+      <c r="AG296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -30778,6 +32558,12 @@
       <c r="AF297" t="n">
         <v>0</v>
       </c>
+      <c r="AG297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -30880,6 +32666,12 @@
       <c r="AF298" t="n">
         <v>0</v>
       </c>
+      <c r="AG298" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -30982,6 +32774,12 @@
       <c r="AF299" t="n">
         <v>0</v>
       </c>
+      <c r="AG299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -31084,6 +32882,12 @@
       <c r="AF300" t="n">
         <v>0</v>
       </c>
+      <c r="AG300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -31186,6 +32990,12 @@
       <c r="AF301" t="n">
         <v>0</v>
       </c>
+      <c r="AG301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -31288,6 +33098,12 @@
       <c r="AF302" t="n">
         <v>4</v>
       </c>
+      <c r="AG302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -31390,6 +33206,12 @@
       <c r="AF303" t="n">
         <v>0</v>
       </c>
+      <c r="AG303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -31492,6 +33314,12 @@
       <c r="AF304" t="n">
         <v>0</v>
       </c>
+      <c r="AG304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -31594,6 +33422,12 @@
       <c r="AF305" t="n">
         <v>0</v>
       </c>
+      <c r="AG305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -31696,6 +33530,12 @@
       <c r="AF306" t="n">
         <v>0</v>
       </c>
+      <c r="AG306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -31798,6 +33638,12 @@
       <c r="AF307" t="n">
         <v>0</v>
       </c>
+      <c r="AG307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -31900,6 +33746,12 @@
       <c r="AF308" t="n">
         <v>0</v>
       </c>
+      <c r="AG308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -32002,6 +33854,12 @@
       <c r="AF309" t="n">
         <v>0</v>
       </c>
+      <c r="AG309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -32104,6 +33962,12 @@
       <c r="AF310" t="n">
         <v>0</v>
       </c>
+      <c r="AG310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -32206,6 +34070,12 @@
       <c r="AF311" t="n">
         <v>4</v>
       </c>
+      <c r="AG311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -32308,6 +34178,12 @@
       <c r="AF312" t="n">
         <v>0</v>
       </c>
+      <c r="AG312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -32410,6 +34286,12 @@
       <c r="AF313" t="n">
         <v>0</v>
       </c>
+      <c r="AG313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -32512,6 +34394,12 @@
       <c r="AF314" t="n">
         <v>0</v>
       </c>
+      <c r="AG314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -32614,6 +34502,12 @@
       <c r="AF315" t="n">
         <v>0</v>
       </c>
+      <c r="AG315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -32716,6 +34610,12 @@
       <c r="AF316" t="n">
         <v>0</v>
       </c>
+      <c r="AG316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -32818,6 +34718,12 @@
       <c r="AF317" t="n">
         <v>0</v>
       </c>
+      <c r="AG317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH317" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -32920,6 +34826,12 @@
       <c r="AF318" t="n">
         <v>0</v>
       </c>
+      <c r="AG318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH318" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -33022,6 +34934,12 @@
       <c r="AF319" t="n">
         <v>0</v>
       </c>
+      <c r="AG319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -33124,6 +35042,12 @@
       <c r="AF320" t="n">
         <v>4</v>
       </c>
+      <c r="AG320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH320" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -33226,6 +35150,12 @@
       <c r="AF321" t="n">
         <v>4</v>
       </c>
+      <c r="AG321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -33328,6 +35258,12 @@
       <c r="AF322" t="n">
         <v>0</v>
       </c>
+      <c r="AG322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -33430,6 +35366,12 @@
       <c r="AF323" t="n">
         <v>0</v>
       </c>
+      <c r="AG323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH323" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -33532,6 +35474,12 @@
       <c r="AF324" t="n">
         <v>0</v>
       </c>
+      <c r="AG324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH324" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -33634,6 +35582,12 @@
       <c r="AF325" t="n">
         <v>0</v>
       </c>
+      <c r="AG325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -33736,6 +35690,12 @@
       <c r="AF326" t="n">
         <v>4</v>
       </c>
+      <c r="AG326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -33838,6 +35798,12 @@
       <c r="AF327" t="n">
         <v>0</v>
       </c>
+      <c r="AG327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH327" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -33940,6 +35906,12 @@
       <c r="AF328" t="n">
         <v>0</v>
       </c>
+      <c r="AG328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -34042,6 +36014,12 @@
       <c r="AF329" t="n">
         <v>0</v>
       </c>
+      <c r="AG329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -34144,6 +36122,12 @@
       <c r="AF330" t="n">
         <v>0</v>
       </c>
+      <c r="AG330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -34246,6 +36230,12 @@
       <c r="AF331" t="n">
         <v>0</v>
       </c>
+      <c r="AG331" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -34348,6 +36338,12 @@
       <c r="AF332" t="n">
         <v>0</v>
       </c>
+      <c r="AG332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -34450,6 +36446,12 @@
       <c r="AF333" t="n">
         <v>0</v>
       </c>
+      <c r="AG333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -34552,6 +36554,12 @@
       <c r="AF334" t="n">
         <v>0</v>
       </c>
+      <c r="AG334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -34654,6 +36662,12 @@
       <c r="AF335" t="n">
         <v>0</v>
       </c>
+      <c r="AG335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -34756,6 +36770,12 @@
       <c r="AF336" t="n">
         <v>0</v>
       </c>
+      <c r="AG336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -34858,6 +36878,12 @@
       <c r="AF337" t="n">
         <v>0</v>
       </c>
+      <c r="AG337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -34960,6 +36986,12 @@
       <c r="AF338" t="n">
         <v>4</v>
       </c>
+      <c r="AG338" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -35062,6 +37094,12 @@
       <c r="AF339" t="n">
         <v>0</v>
       </c>
+      <c r="AG339" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -35164,6 +37202,12 @@
       <c r="AF340" t="n">
         <v>0</v>
       </c>
+      <c r="AG340" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -35266,6 +37310,12 @@
       <c r="AF341" t="n">
         <v>0</v>
       </c>
+      <c r="AG341" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -35368,6 +37418,12 @@
       <c r="AF342" t="n">
         <v>0</v>
       </c>
+      <c r="AG342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -35470,6 +37526,12 @@
       <c r="AF343" t="n">
         <v>0</v>
       </c>
+      <c r="AG343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -35570,6 +37632,12 @@
         <v>0</v>
       </c>
       <c r="AF344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH344" t="n">
         <v>0</v>
       </c>
     </row>

--- a/SEM2-HOURS.xlsx
+++ b/SEM2-HOURS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH344"/>
+  <dimension ref="A1:AI344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,6 +604,11 @@
           <t>Donation Drive Seva Utsav</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Banners Seva Utsav</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -704,6 +709,9 @@
       <c r="AH2" t="n">
         <v>5</v>
       </c>
+      <c r="AI2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -812,6 +820,9 @@
       <c r="AH3" t="n">
         <v>0</v>
       </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -920,6 +931,9 @@
       <c r="AH4" t="n">
         <v>0</v>
       </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1027,6 +1041,9 @@
       </c>
       <c r="AH5" t="n">
         <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1136,6 +1153,9 @@
       <c r="AH6" t="n">
         <v>0</v>
       </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1244,6 +1264,9 @@
       <c r="AH7" t="n">
         <v>0</v>
       </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1352,6 +1375,9 @@
       <c r="AH8" t="n">
         <v>0</v>
       </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1460,6 +1486,9 @@
       <c r="AH9" t="n">
         <v>5</v>
       </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1568,6 +1597,9 @@
       <c r="AH10" t="n">
         <v>0</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1676,6 +1708,9 @@
       <c r="AH11" t="n">
         <v>0</v>
       </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1784,6 +1819,9 @@
       <c r="AH12" t="n">
         <v>0</v>
       </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1892,6 +1930,9 @@
       <c r="AH13" t="n">
         <v>0</v>
       </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2000,6 +2041,9 @@
       <c r="AH14" t="n">
         <v>0</v>
       </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2108,6 +2152,9 @@
       <c r="AH15" t="n">
         <v>0</v>
       </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2216,6 +2263,9 @@
       <c r="AH16" t="n">
         <v>0</v>
       </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2324,6 +2374,9 @@
       <c r="AH17" t="n">
         <v>0</v>
       </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2432,6 +2485,9 @@
       <c r="AH18" t="n">
         <v>0</v>
       </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2540,6 +2596,9 @@
       <c r="AH19" t="n">
         <v>0</v>
       </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2648,6 +2707,9 @@
       <c r="AH20" t="n">
         <v>5</v>
       </c>
+      <c r="AI20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2756,6 +2818,9 @@
       <c r="AH21" t="n">
         <v>0</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2864,6 +2929,9 @@
       <c r="AH22" t="n">
         <v>5</v>
       </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2972,6 +3040,9 @@
       <c r="AH23" t="n">
         <v>0</v>
       </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3080,6 +3151,9 @@
       <c r="AH24" t="n">
         <v>5</v>
       </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3188,6 +3262,9 @@
       <c r="AH25" t="n">
         <v>0</v>
       </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3296,6 +3373,9 @@
       <c r="AH26" t="n">
         <v>0</v>
       </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3404,6 +3484,9 @@
       <c r="AH27" t="n">
         <v>0</v>
       </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3512,6 +3595,9 @@
       <c r="AH28" t="n">
         <v>0</v>
       </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3620,6 +3706,9 @@
       <c r="AH29" t="n">
         <v>0</v>
       </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3728,6 +3817,9 @@
       <c r="AH30" t="n">
         <v>0</v>
       </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3836,6 +3928,9 @@
       <c r="AH31" t="n">
         <v>0</v>
       </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3944,6 +4039,9 @@
       <c r="AH32" t="n">
         <v>0</v>
       </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4052,6 +4150,9 @@
       <c r="AH33" t="n">
         <v>0</v>
       </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4160,6 +4261,9 @@
       <c r="AH34" t="n">
         <v>0</v>
       </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4268,6 +4372,9 @@
       <c r="AH35" t="n">
         <v>0</v>
       </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4376,6 +4483,9 @@
       <c r="AH36" t="n">
         <v>0</v>
       </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4484,6 +4594,9 @@
       <c r="AH37" t="n">
         <v>0</v>
       </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4592,6 +4705,9 @@
       <c r="AH38" t="n">
         <v>0</v>
       </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4700,6 +4816,9 @@
       <c r="AH39" t="n">
         <v>0</v>
       </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4808,6 +4927,9 @@
       <c r="AH40" t="n">
         <v>0</v>
       </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4916,6 +5038,9 @@
       <c r="AH41" t="n">
         <v>0</v>
       </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5024,6 +5149,9 @@
       <c r="AH42" t="n">
         <v>0</v>
       </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5132,6 +5260,9 @@
       <c r="AH43" t="n">
         <v>0</v>
       </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5240,6 +5371,9 @@
       <c r="AH44" t="n">
         <v>0</v>
       </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5348,6 +5482,9 @@
       <c r="AH45" t="n">
         <v>0</v>
       </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5456,6 +5593,9 @@
       <c r="AH46" t="n">
         <v>0</v>
       </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5564,6 +5704,9 @@
       <c r="AH47" t="n">
         <v>0</v>
       </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5672,6 +5815,9 @@
       <c r="AH48" t="n">
         <v>0</v>
       </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5780,6 +5926,9 @@
       <c r="AH49" t="n">
         <v>0</v>
       </c>
+      <c r="AI49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5888,6 +6037,9 @@
       <c r="AH50" t="n">
         <v>0</v>
       </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5996,6 +6148,9 @@
       <c r="AH51" t="n">
         <v>0</v>
       </c>
+      <c r="AI51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6104,6 +6259,9 @@
       <c r="AH52" t="n">
         <v>0</v>
       </c>
+      <c r="AI52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6212,6 +6370,9 @@
       <c r="AH53" t="n">
         <v>0</v>
       </c>
+      <c r="AI53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6320,6 +6481,9 @@
       <c r="AH54" t="n">
         <v>0</v>
       </c>
+      <c r="AI54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6428,6 +6592,9 @@
       <c r="AH55" t="n">
         <v>0</v>
       </c>
+      <c r="AI55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6536,6 +6703,9 @@
       <c r="AH56" t="n">
         <v>0</v>
       </c>
+      <c r="AI56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6644,6 +6814,9 @@
       <c r="AH57" t="n">
         <v>0</v>
       </c>
+      <c r="AI57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6752,6 +6925,9 @@
       <c r="AH58" t="n">
         <v>0</v>
       </c>
+      <c r="AI58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6860,6 +7036,9 @@
       <c r="AH59" t="n">
         <v>0</v>
       </c>
+      <c r="AI59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6968,6 +7147,9 @@
       <c r="AH60" t="n">
         <v>0</v>
       </c>
+      <c r="AI60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7076,6 +7258,9 @@
       <c r="AH61" t="n">
         <v>0</v>
       </c>
+      <c r="AI61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7184,6 +7369,9 @@
       <c r="AH62" t="n">
         <v>0</v>
       </c>
+      <c r="AI62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7292,6 +7480,9 @@
       <c r="AH63" t="n">
         <v>5</v>
       </c>
+      <c r="AI63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7400,6 +7591,9 @@
       <c r="AH64" t="n">
         <v>0</v>
       </c>
+      <c r="AI64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7508,6 +7702,9 @@
       <c r="AH65" t="n">
         <v>0</v>
       </c>
+      <c r="AI65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7616,6 +7813,9 @@
       <c r="AH66" t="n">
         <v>0</v>
       </c>
+      <c r="AI66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7724,6 +7924,9 @@
       <c r="AH67" t="n">
         <v>0</v>
       </c>
+      <c r="AI67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -7832,6 +8035,9 @@
       <c r="AH68" t="n">
         <v>0</v>
       </c>
+      <c r="AI68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -7940,6 +8146,9 @@
       <c r="AH69" t="n">
         <v>0</v>
       </c>
+      <c r="AI69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -8048,6 +8257,9 @@
       <c r="AH70" t="n">
         <v>5</v>
       </c>
+      <c r="AI70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -8156,6 +8368,9 @@
       <c r="AH71" t="n">
         <v>0</v>
       </c>
+      <c r="AI71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -8264,6 +8479,9 @@
       <c r="AH72" t="n">
         <v>0</v>
       </c>
+      <c r="AI72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -8372,6 +8590,9 @@
       <c r="AH73" t="n">
         <v>0</v>
       </c>
+      <c r="AI73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -8480,6 +8701,9 @@
       <c r="AH74" t="n">
         <v>0</v>
       </c>
+      <c r="AI74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -8588,6 +8812,9 @@
       <c r="AH75" t="n">
         <v>0</v>
       </c>
+      <c r="AI75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -8696,6 +8923,9 @@
       <c r="AH76" t="n">
         <v>0</v>
       </c>
+      <c r="AI76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -8804,6 +9034,9 @@
       <c r="AH77" t="n">
         <v>0</v>
       </c>
+      <c r="AI77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -8912,6 +9145,9 @@
       <c r="AH78" t="n">
         <v>0</v>
       </c>
+      <c r="AI78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -9020,6 +9256,9 @@
       <c r="AH79" t="n">
         <v>0</v>
       </c>
+      <c r="AI79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -9128,6 +9367,9 @@
       <c r="AH80" t="n">
         <v>0</v>
       </c>
+      <c r="AI80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -9236,6 +9478,9 @@
       <c r="AH81" t="n">
         <v>0</v>
       </c>
+      <c r="AI81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -9344,6 +9589,9 @@
       <c r="AH82" t="n">
         <v>0</v>
       </c>
+      <c r="AI82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -9452,6 +9700,9 @@
       <c r="AH83" t="n">
         <v>0</v>
       </c>
+      <c r="AI83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -9560,6 +9811,9 @@
       <c r="AH84" t="n">
         <v>5</v>
       </c>
+      <c r="AI84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -9668,6 +9922,9 @@
       <c r="AH85" t="n">
         <v>0</v>
       </c>
+      <c r="AI85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -9776,6 +10033,9 @@
       <c r="AH86" t="n">
         <v>0</v>
       </c>
+      <c r="AI86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -9884,6 +10144,9 @@
       <c r="AH87" t="n">
         <v>0</v>
       </c>
+      <c r="AI87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -9992,6 +10255,9 @@
       <c r="AH88" t="n">
         <v>0</v>
       </c>
+      <c r="AI88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -10100,6 +10366,9 @@
       <c r="AH89" t="n">
         <v>0</v>
       </c>
+      <c r="AI89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -10208,6 +10477,9 @@
       <c r="AH90" t="n">
         <v>0</v>
       </c>
+      <c r="AI90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -10316,6 +10588,9 @@
       <c r="AH91" t="n">
         <v>0</v>
       </c>
+      <c r="AI91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -10424,6 +10699,9 @@
       <c r="AH92" t="n">
         <v>0</v>
       </c>
+      <c r="AI92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -10532,6 +10810,9 @@
       <c r="AH93" t="n">
         <v>0</v>
       </c>
+      <c r="AI93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -10640,6 +10921,9 @@
       <c r="AH94" t="n">
         <v>5</v>
       </c>
+      <c r="AI94" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -10748,6 +11032,9 @@
       <c r="AH95" t="n">
         <v>0</v>
       </c>
+      <c r="AI95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -10856,6 +11143,9 @@
       <c r="AH96" t="n">
         <v>0</v>
       </c>
+      <c r="AI96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -10964,6 +11254,9 @@
       <c r="AH97" t="n">
         <v>5</v>
       </c>
+      <c r="AI97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -11072,6 +11365,9 @@
       <c r="AH98" t="n">
         <v>0</v>
       </c>
+      <c r="AI98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -11180,6 +11476,9 @@
       <c r="AH99" t="n">
         <v>0</v>
       </c>
+      <c r="AI99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -11288,6 +11587,9 @@
       <c r="AH100" t="n">
         <v>0</v>
       </c>
+      <c r="AI100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -11396,6 +11698,9 @@
       <c r="AH101" t="n">
         <v>0</v>
       </c>
+      <c r="AI101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -11504,6 +11809,9 @@
       <c r="AH102" t="n">
         <v>0</v>
       </c>
+      <c r="AI102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -11612,6 +11920,9 @@
       <c r="AH103" t="n">
         <v>0</v>
       </c>
+      <c r="AI103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -11720,6 +12031,9 @@
       <c r="AH104" t="n">
         <v>5</v>
       </c>
+      <c r="AI104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -11828,6 +12142,9 @@
       <c r="AH105" t="n">
         <v>0</v>
       </c>
+      <c r="AI105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -11936,6 +12253,9 @@
       <c r="AH106" t="n">
         <v>0</v>
       </c>
+      <c r="AI106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -12044,6 +12364,9 @@
       <c r="AH107" t="n">
         <v>0</v>
       </c>
+      <c r="AI107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -12152,6 +12475,9 @@
       <c r="AH108" t="n">
         <v>0</v>
       </c>
+      <c r="AI108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -12260,6 +12586,9 @@
       <c r="AH109" t="n">
         <v>0</v>
       </c>
+      <c r="AI109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -12368,6 +12697,9 @@
       <c r="AH110" t="n">
         <v>0</v>
       </c>
+      <c r="AI110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -12476,6 +12808,9 @@
       <c r="AH111" t="n">
         <v>0</v>
       </c>
+      <c r="AI111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -12584,6 +12919,9 @@
       <c r="AH112" t="n">
         <v>0</v>
       </c>
+      <c r="AI112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -12692,6 +13030,9 @@
       <c r="AH113" t="n">
         <v>0</v>
       </c>
+      <c r="AI113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -12800,6 +13141,9 @@
       <c r="AH114" t="n">
         <v>5</v>
       </c>
+      <c r="AI114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -12908,6 +13252,9 @@
       <c r="AH115" t="n">
         <v>0</v>
       </c>
+      <c r="AI115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -13016,6 +13363,9 @@
       <c r="AH116" t="n">
         <v>5</v>
       </c>
+      <c r="AI116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -13124,6 +13474,9 @@
       <c r="AH117" t="n">
         <v>0</v>
       </c>
+      <c r="AI117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -13232,6 +13585,9 @@
       <c r="AH118" t="n">
         <v>0</v>
       </c>
+      <c r="AI118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -13340,6 +13696,9 @@
       <c r="AH119" t="n">
         <v>0</v>
       </c>
+      <c r="AI119" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -13448,6 +13807,9 @@
       <c r="AH120" t="n">
         <v>0</v>
       </c>
+      <c r="AI120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -13556,6 +13918,9 @@
       <c r="AH121" t="n">
         <v>0</v>
       </c>
+      <c r="AI121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -13664,6 +14029,9 @@
       <c r="AH122" t="n">
         <v>0</v>
       </c>
+      <c r="AI122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -13772,6 +14140,9 @@
       <c r="AH123" t="n">
         <v>5</v>
       </c>
+      <c r="AI123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -13880,6 +14251,9 @@
       <c r="AH124" t="n">
         <v>0</v>
       </c>
+      <c r="AI124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -13988,6 +14362,9 @@
       <c r="AH125" t="n">
         <v>0</v>
       </c>
+      <c r="AI125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -14096,6 +14473,9 @@
       <c r="AH126" t="n">
         <v>0</v>
       </c>
+      <c r="AI126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -14204,6 +14584,9 @@
       <c r="AH127" t="n">
         <v>0</v>
       </c>
+      <c r="AI127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -14312,6 +14695,9 @@
       <c r="AH128" t="n">
         <v>5</v>
       </c>
+      <c r="AI128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -14420,6 +14806,9 @@
       <c r="AH129" t="n">
         <v>0</v>
       </c>
+      <c r="AI129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -14528,6 +14917,9 @@
       <c r="AH130" t="n">
         <v>0</v>
       </c>
+      <c r="AI130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -14636,6 +15028,9 @@
       <c r="AH131" t="n">
         <v>0</v>
       </c>
+      <c r="AI131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -14744,6 +15139,9 @@
       <c r="AH132" t="n">
         <v>0</v>
       </c>
+      <c r="AI132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -14852,6 +15250,9 @@
       <c r="AH133" t="n">
         <v>0</v>
       </c>
+      <c r="AI133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -14960,6 +15361,9 @@
       <c r="AH134" t="n">
         <v>0</v>
       </c>
+      <c r="AI134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -15068,6 +15472,9 @@
       <c r="AH135" t="n">
         <v>0</v>
       </c>
+      <c r="AI135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -15176,6 +15583,9 @@
       <c r="AH136" t="n">
         <v>0</v>
       </c>
+      <c r="AI136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -15284,6 +15694,9 @@
       <c r="AH137" t="n">
         <v>5</v>
       </c>
+      <c r="AI137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -15392,6 +15805,9 @@
       <c r="AH138" t="n">
         <v>0</v>
       </c>
+      <c r="AI138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -15500,6 +15916,9 @@
       <c r="AH139" t="n">
         <v>0</v>
       </c>
+      <c r="AI139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -15608,6 +16027,9 @@
       <c r="AH140" t="n">
         <v>0</v>
       </c>
+      <c r="AI140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -15716,6 +16138,9 @@
       <c r="AH141" t="n">
         <v>0</v>
       </c>
+      <c r="AI141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -15824,6 +16249,9 @@
       <c r="AH142" t="n">
         <v>0</v>
       </c>
+      <c r="AI142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -15932,6 +16360,9 @@
       <c r="AH143" t="n">
         <v>0</v>
       </c>
+      <c r="AI143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -16040,6 +16471,9 @@
       <c r="AH144" t="n">
         <v>0</v>
       </c>
+      <c r="AI144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -16148,6 +16582,9 @@
       <c r="AH145" t="n">
         <v>0</v>
       </c>
+      <c r="AI145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -16256,6 +16693,9 @@
       <c r="AH146" t="n">
         <v>0</v>
       </c>
+      <c r="AI146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -16364,6 +16804,9 @@
       <c r="AH147" t="n">
         <v>0</v>
       </c>
+      <c r="AI147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -16472,6 +16915,9 @@
       <c r="AH148" t="n">
         <v>0</v>
       </c>
+      <c r="AI148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -16580,6 +17026,9 @@
       <c r="AH149" t="n">
         <v>0</v>
       </c>
+      <c r="AI149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -16688,6 +17137,9 @@
       <c r="AH150" t="n">
         <v>0</v>
       </c>
+      <c r="AI150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -16796,6 +17248,9 @@
       <c r="AH151" t="n">
         <v>0</v>
       </c>
+      <c r="AI151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -16904,6 +17359,9 @@
       <c r="AH152" t="n">
         <v>0</v>
       </c>
+      <c r="AI152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -17012,6 +17470,9 @@
       <c r="AH153" t="n">
         <v>0</v>
       </c>
+      <c r="AI153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -17120,6 +17581,9 @@
       <c r="AH154" t="n">
         <v>0</v>
       </c>
+      <c r="AI154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -17228,6 +17692,9 @@
       <c r="AH155" t="n">
         <v>0</v>
       </c>
+      <c r="AI155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -17336,6 +17803,9 @@
       <c r="AH156" t="n">
         <v>0</v>
       </c>
+      <c r="AI156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -17444,6 +17914,9 @@
       <c r="AH157" t="n">
         <v>0</v>
       </c>
+      <c r="AI157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -17552,6 +18025,9 @@
       <c r="AH158" t="n">
         <v>0</v>
       </c>
+      <c r="AI158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -17660,6 +18136,9 @@
       <c r="AH159" t="n">
         <v>5</v>
       </c>
+      <c r="AI159" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -17768,6 +18247,9 @@
       <c r="AH160" t="n">
         <v>0</v>
       </c>
+      <c r="AI160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -17876,6 +18358,9 @@
       <c r="AH161" t="n">
         <v>0</v>
       </c>
+      <c r="AI161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -17984,6 +18469,9 @@
       <c r="AH162" t="n">
         <v>5</v>
       </c>
+      <c r="AI162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -18092,6 +18580,9 @@
       <c r="AH163" t="n">
         <v>0</v>
       </c>
+      <c r="AI163" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -18200,6 +18691,9 @@
       <c r="AH164" t="n">
         <v>0</v>
       </c>
+      <c r="AI164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -18308,6 +18802,9 @@
       <c r="AH165" t="n">
         <v>0</v>
       </c>
+      <c r="AI165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -18416,6 +18913,9 @@
       <c r="AH166" t="n">
         <v>0</v>
       </c>
+      <c r="AI166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -18524,6 +19024,9 @@
       <c r="AH167" t="n">
         <v>0</v>
       </c>
+      <c r="AI167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -18632,6 +19135,9 @@
       <c r="AH168" t="n">
         <v>0</v>
       </c>
+      <c r="AI168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -18740,6 +19246,9 @@
       <c r="AH169" t="n">
         <v>0</v>
       </c>
+      <c r="AI169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -18848,6 +19357,9 @@
       <c r="AH170" t="n">
         <v>0</v>
       </c>
+      <c r="AI170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -18956,6 +19468,9 @@
       <c r="AH171" t="n">
         <v>0</v>
       </c>
+      <c r="AI171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -19064,6 +19579,9 @@
       <c r="AH172" t="n">
         <v>0</v>
       </c>
+      <c r="AI172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -19172,6 +19690,9 @@
       <c r="AH173" t="n">
         <v>5</v>
       </c>
+      <c r="AI173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -19280,6 +19801,9 @@
       <c r="AH174" t="n">
         <v>0</v>
       </c>
+      <c r="AI174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -19388,6 +19912,9 @@
       <c r="AH175" t="n">
         <v>0</v>
       </c>
+      <c r="AI175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -19496,6 +20023,9 @@
       <c r="AH176" t="n">
         <v>0</v>
       </c>
+      <c r="AI176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -19604,6 +20134,9 @@
       <c r="AH177" t="n">
         <v>5</v>
       </c>
+      <c r="AI177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -19712,6 +20245,9 @@
       <c r="AH178" t="n">
         <v>0</v>
       </c>
+      <c r="AI178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -19820,6 +20356,9 @@
       <c r="AH179" t="n">
         <v>0</v>
       </c>
+      <c r="AI179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -19928,6 +20467,9 @@
       <c r="AH180" t="n">
         <v>0</v>
       </c>
+      <c r="AI180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -20036,6 +20578,9 @@
       <c r="AH181" t="n">
         <v>0</v>
       </c>
+      <c r="AI181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -20144,6 +20689,9 @@
       <c r="AH182" t="n">
         <v>0</v>
       </c>
+      <c r="AI182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -20252,6 +20800,9 @@
       <c r="AH183" t="n">
         <v>0</v>
       </c>
+      <c r="AI183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -20360,6 +20911,9 @@
       <c r="AH184" t="n">
         <v>0</v>
       </c>
+      <c r="AI184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -20468,6 +21022,9 @@
       <c r="AH185" t="n">
         <v>0</v>
       </c>
+      <c r="AI185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -20576,6 +21133,9 @@
       <c r="AH186" t="n">
         <v>0</v>
       </c>
+      <c r="AI186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -20684,6 +21244,9 @@
       <c r="AH187" t="n">
         <v>0</v>
       </c>
+      <c r="AI187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -20792,6 +21355,9 @@
       <c r="AH188" t="n">
         <v>0</v>
       </c>
+      <c r="AI188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -20900,6 +21466,9 @@
       <c r="AH189" t="n">
         <v>0</v>
       </c>
+      <c r="AI189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -21008,6 +21577,9 @@
       <c r="AH190" t="n">
         <v>0</v>
       </c>
+      <c r="AI190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -21116,6 +21688,9 @@
       <c r="AH191" t="n">
         <v>0</v>
       </c>
+      <c r="AI191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -21224,6 +21799,9 @@
       <c r="AH192" t="n">
         <v>0</v>
       </c>
+      <c r="AI192" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -21332,6 +21910,9 @@
       <c r="AH193" t="n">
         <v>0</v>
       </c>
+      <c r="AI193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -21440,6 +22021,9 @@
       <c r="AH194" t="n">
         <v>5</v>
       </c>
+      <c r="AI194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -21548,6 +22132,9 @@
       <c r="AH195" t="n">
         <v>0</v>
       </c>
+      <c r="AI195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -21656,6 +22243,9 @@
       <c r="AH196" t="n">
         <v>0</v>
       </c>
+      <c r="AI196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -21764,6 +22354,9 @@
       <c r="AH197" t="n">
         <v>0</v>
       </c>
+      <c r="AI197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -21872,6 +22465,9 @@
       <c r="AH198" t="n">
         <v>0</v>
       </c>
+      <c r="AI198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -21980,6 +22576,9 @@
       <c r="AH199" t="n">
         <v>0</v>
       </c>
+      <c r="AI199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -22088,6 +22687,9 @@
       <c r="AH200" t="n">
         <v>0</v>
       </c>
+      <c r="AI200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -22196,6 +22798,9 @@
       <c r="AH201" t="n">
         <v>0</v>
       </c>
+      <c r="AI201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -22304,6 +22909,9 @@
       <c r="AH202" t="n">
         <v>0</v>
       </c>
+      <c r="AI202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -22412,6 +23020,9 @@
       <c r="AH203" t="n">
         <v>0</v>
       </c>
+      <c r="AI203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -22520,6 +23131,9 @@
       <c r="AH204" t="n">
         <v>0</v>
       </c>
+      <c r="AI204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -22628,6 +23242,9 @@
       <c r="AH205" t="n">
         <v>0</v>
       </c>
+      <c r="AI205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -22736,6 +23353,9 @@
       <c r="AH206" t="n">
         <v>0</v>
       </c>
+      <c r="AI206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -22844,6 +23464,9 @@
       <c r="AH207" t="n">
         <v>0</v>
       </c>
+      <c r="AI207" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -22952,6 +23575,9 @@
       <c r="AH208" t="n">
         <v>5</v>
       </c>
+      <c r="AI208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -23060,6 +23686,9 @@
       <c r="AH209" t="n">
         <v>0</v>
       </c>
+      <c r="AI209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -23168,6 +23797,9 @@
       <c r="AH210" t="n">
         <v>0</v>
       </c>
+      <c r="AI210" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -23276,6 +23908,9 @@
       <c r="AH211" t="n">
         <v>0</v>
       </c>
+      <c r="AI211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -23384,6 +24019,9 @@
       <c r="AH212" t="n">
         <v>0</v>
       </c>
+      <c r="AI212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -23492,6 +24130,9 @@
       <c r="AH213" t="n">
         <v>5</v>
       </c>
+      <c r="AI213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -23600,6 +24241,9 @@
       <c r="AH214" t="n">
         <v>0</v>
       </c>
+      <c r="AI214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -23708,6 +24352,9 @@
       <c r="AH215" t="n">
         <v>0</v>
       </c>
+      <c r="AI215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -23816,6 +24463,9 @@
       <c r="AH216" t="n">
         <v>0</v>
       </c>
+      <c r="AI216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -23924,6 +24574,9 @@
       <c r="AH217" t="n">
         <v>5</v>
       </c>
+      <c r="AI217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -24032,6 +24685,9 @@
       <c r="AH218" t="n">
         <v>0</v>
       </c>
+      <c r="AI218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -24140,6 +24796,9 @@
       <c r="AH219" t="n">
         <v>0</v>
       </c>
+      <c r="AI219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -24248,6 +24907,9 @@
       <c r="AH220" t="n">
         <v>0</v>
       </c>
+      <c r="AI220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -24356,6 +25018,9 @@
       <c r="AH221" t="n">
         <v>0</v>
       </c>
+      <c r="AI221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -24464,6 +25129,9 @@
       <c r="AH222" t="n">
         <v>0</v>
       </c>
+      <c r="AI222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -24572,6 +25240,9 @@
       <c r="AH223" t="n">
         <v>0</v>
       </c>
+      <c r="AI223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -24680,6 +25351,9 @@
       <c r="AH224" t="n">
         <v>0</v>
       </c>
+      <c r="AI224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -24788,6 +25462,9 @@
       <c r="AH225" t="n">
         <v>0</v>
       </c>
+      <c r="AI225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -24896,6 +25573,9 @@
       <c r="AH226" t="n">
         <v>0</v>
       </c>
+      <c r="AI226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -25004,6 +25684,9 @@
       <c r="AH227" t="n">
         <v>0</v>
       </c>
+      <c r="AI227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -25112,6 +25795,9 @@
       <c r="AH228" t="n">
         <v>0</v>
       </c>
+      <c r="AI228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -25220,6 +25906,9 @@
       <c r="AH229" t="n">
         <v>0</v>
       </c>
+      <c r="AI229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -25328,6 +26017,9 @@
       <c r="AH230" t="n">
         <v>5</v>
       </c>
+      <c r="AI230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -25436,6 +26128,9 @@
       <c r="AH231" t="n">
         <v>0</v>
       </c>
+      <c r="AI231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -25544,6 +26239,9 @@
       <c r="AH232" t="n">
         <v>0</v>
       </c>
+      <c r="AI232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -25652,6 +26350,9 @@
       <c r="AH233" t="n">
         <v>0</v>
       </c>
+      <c r="AI233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -25760,6 +26461,9 @@
       <c r="AH234" t="n">
         <v>0</v>
       </c>
+      <c r="AI234" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -25868,6 +26572,9 @@
       <c r="AH235" t="n">
         <v>0</v>
       </c>
+      <c r="AI235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -25976,6 +26683,9 @@
       <c r="AH236" t="n">
         <v>5</v>
       </c>
+      <c r="AI236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -26084,6 +26794,9 @@
       <c r="AH237" t="n">
         <v>0</v>
       </c>
+      <c r="AI237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -26192,6 +26905,9 @@
       <c r="AH238" t="n">
         <v>0</v>
       </c>
+      <c r="AI238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -26300,6 +27016,9 @@
       <c r="AH239" t="n">
         <v>5</v>
       </c>
+      <c r="AI239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -26408,6 +27127,9 @@
       <c r="AH240" t="n">
         <v>0</v>
       </c>
+      <c r="AI240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -26516,6 +27238,9 @@
       <c r="AH241" t="n">
         <v>0</v>
       </c>
+      <c r="AI241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -26624,6 +27349,9 @@
       <c r="AH242" t="n">
         <v>0</v>
       </c>
+      <c r="AI242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -26732,6 +27460,9 @@
       <c r="AH243" t="n">
         <v>0</v>
       </c>
+      <c r="AI243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -26840,6 +27571,9 @@
       <c r="AH244" t="n">
         <v>0</v>
       </c>
+      <c r="AI244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -26948,6 +27682,9 @@
       <c r="AH245" t="n">
         <v>0</v>
       </c>
+      <c r="AI245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -27056,6 +27793,9 @@
       <c r="AH246" t="n">
         <v>0</v>
       </c>
+      <c r="AI246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -27164,6 +27904,9 @@
       <c r="AH247" t="n">
         <v>0</v>
       </c>
+      <c r="AI247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -27272,6 +28015,9 @@
       <c r="AH248" t="n">
         <v>0</v>
       </c>
+      <c r="AI248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -27380,6 +28126,9 @@
       <c r="AH249" t="n">
         <v>5</v>
       </c>
+      <c r="AI249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -27488,6 +28237,9 @@
       <c r="AH250" t="n">
         <v>0</v>
       </c>
+      <c r="AI250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -27596,6 +28348,9 @@
       <c r="AH251" t="n">
         <v>0</v>
       </c>
+      <c r="AI251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -27704,6 +28459,9 @@
       <c r="AH252" t="n">
         <v>0</v>
       </c>
+      <c r="AI252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -27812,6 +28570,9 @@
       <c r="AH253" t="n">
         <v>0</v>
       </c>
+      <c r="AI253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -27920,6 +28681,9 @@
       <c r="AH254" t="n">
         <v>0</v>
       </c>
+      <c r="AI254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -28028,6 +28792,9 @@
       <c r="AH255" t="n">
         <v>0</v>
       </c>
+      <c r="AI255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -28136,6 +28903,9 @@
       <c r="AH256" t="n">
         <v>0</v>
       </c>
+      <c r="AI256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -28244,6 +29014,9 @@
       <c r="AH257" t="n">
         <v>0</v>
       </c>
+      <c r="AI257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -28352,6 +29125,9 @@
       <c r="AH258" t="n">
         <v>0</v>
       </c>
+      <c r="AI258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -28460,6 +29236,9 @@
       <c r="AH259" t="n">
         <v>5</v>
       </c>
+      <c r="AI259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -28568,6 +29347,9 @@
       <c r="AH260" t="n">
         <v>0</v>
       </c>
+      <c r="AI260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -28676,6 +29458,9 @@
       <c r="AH261" t="n">
         <v>0</v>
       </c>
+      <c r="AI261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -28784,6 +29569,9 @@
       <c r="AH262" t="n">
         <v>0</v>
       </c>
+      <c r="AI262" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -28892,6 +29680,9 @@
       <c r="AH263" t="n">
         <v>0</v>
       </c>
+      <c r="AI263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -29000,6 +29791,9 @@
       <c r="AH264" t="n">
         <v>0</v>
       </c>
+      <c r="AI264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -29108,6 +29902,9 @@
       <c r="AH265" t="n">
         <v>0</v>
       </c>
+      <c r="AI265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -29216,6 +30013,9 @@
       <c r="AH266" t="n">
         <v>0</v>
       </c>
+      <c r="AI266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -29324,6 +30124,9 @@
       <c r="AH267" t="n">
         <v>0</v>
       </c>
+      <c r="AI267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -29432,6 +30235,9 @@
       <c r="AH268" t="n">
         <v>0</v>
       </c>
+      <c r="AI268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -29540,6 +30346,9 @@
       <c r="AH269" t="n">
         <v>0</v>
       </c>
+      <c r="AI269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -29648,6 +30457,9 @@
       <c r="AH270" t="n">
         <v>0</v>
       </c>
+      <c r="AI270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -29756,6 +30568,9 @@
       <c r="AH271" t="n">
         <v>0</v>
       </c>
+      <c r="AI271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -29864,6 +30679,9 @@
       <c r="AH272" t="n">
         <v>0</v>
       </c>
+      <c r="AI272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -29972,6 +30790,9 @@
       <c r="AH273" t="n">
         <v>0</v>
       </c>
+      <c r="AI273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -30080,6 +30901,9 @@
       <c r="AH274" t="n">
         <v>0</v>
       </c>
+      <c r="AI274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -30188,6 +31012,9 @@
       <c r="AH275" t="n">
         <v>0</v>
       </c>
+      <c r="AI275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -30296,6 +31123,9 @@
       <c r="AH276" t="n">
         <v>0</v>
       </c>
+      <c r="AI276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -30404,6 +31234,9 @@
       <c r="AH277" t="n">
         <v>0</v>
       </c>
+      <c r="AI277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -30512,6 +31345,9 @@
       <c r="AH278" t="n">
         <v>0</v>
       </c>
+      <c r="AI278" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -30620,6 +31456,9 @@
       <c r="AH279" t="n">
         <v>0</v>
       </c>
+      <c r="AI279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -30728,6 +31567,9 @@
       <c r="AH280" t="n">
         <v>0</v>
       </c>
+      <c r="AI280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -30836,6 +31678,9 @@
       <c r="AH281" t="n">
         <v>0</v>
       </c>
+      <c r="AI281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -30944,6 +31789,9 @@
       <c r="AH282" t="n">
         <v>0</v>
       </c>
+      <c r="AI282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -31052,6 +31900,9 @@
       <c r="AH283" t="n">
         <v>0</v>
       </c>
+      <c r="AI283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -31160,6 +32011,9 @@
       <c r="AH284" t="n">
         <v>0</v>
       </c>
+      <c r="AI284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -31268,6 +32122,9 @@
       <c r="AH285" t="n">
         <v>0</v>
       </c>
+      <c r="AI285" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -31376,6 +32233,9 @@
       <c r="AH286" t="n">
         <v>0</v>
       </c>
+      <c r="AI286" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -31484,6 +32344,9 @@
       <c r="AH287" t="n">
         <v>0</v>
       </c>
+      <c r="AI287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -31592,6 +32455,9 @@
       <c r="AH288" t="n">
         <v>0</v>
       </c>
+      <c r="AI288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -31700,6 +32566,9 @@
       <c r="AH289" t="n">
         <v>0</v>
       </c>
+      <c r="AI289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -31808,6 +32677,9 @@
       <c r="AH290" t="n">
         <v>0</v>
       </c>
+      <c r="AI290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -31916,6 +32788,9 @@
       <c r="AH291" t="n">
         <v>0</v>
       </c>
+      <c r="AI291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -32024,6 +32899,9 @@
       <c r="AH292" t="n">
         <v>0</v>
       </c>
+      <c r="AI292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -32132,6 +33010,9 @@
       <c r="AH293" t="n">
         <v>0</v>
       </c>
+      <c r="AI293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -32240,6 +33121,9 @@
       <c r="AH294" t="n">
         <v>0</v>
       </c>
+      <c r="AI294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -32348,6 +33232,9 @@
       <c r="AH295" t="n">
         <v>0</v>
       </c>
+      <c r="AI295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -32456,6 +33343,9 @@
       <c r="AH296" t="n">
         <v>0</v>
       </c>
+      <c r="AI296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -32564,6 +33454,9 @@
       <c r="AH297" t="n">
         <v>0</v>
       </c>
+      <c r="AI297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -32672,6 +33565,9 @@
       <c r="AH298" t="n">
         <v>0</v>
       </c>
+      <c r="AI298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -32780,6 +33676,9 @@
       <c r="AH299" t="n">
         <v>0</v>
       </c>
+      <c r="AI299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -32888,6 +33787,9 @@
       <c r="AH300" t="n">
         <v>0</v>
       </c>
+      <c r="AI300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -32996,6 +33898,9 @@
       <c r="AH301" t="n">
         <v>0</v>
       </c>
+      <c r="AI301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -33104,6 +34009,9 @@
       <c r="AH302" t="n">
         <v>0</v>
       </c>
+      <c r="AI302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -33212,6 +34120,9 @@
       <c r="AH303" t="n">
         <v>0</v>
       </c>
+      <c r="AI303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -33320,6 +34231,9 @@
       <c r="AH304" t="n">
         <v>0</v>
       </c>
+      <c r="AI304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -33428,6 +34342,9 @@
       <c r="AH305" t="n">
         <v>0</v>
       </c>
+      <c r="AI305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -33536,6 +34453,9 @@
       <c r="AH306" t="n">
         <v>0</v>
       </c>
+      <c r="AI306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -33644,6 +34564,9 @@
       <c r="AH307" t="n">
         <v>5</v>
       </c>
+      <c r="AI307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -33752,6 +34675,9 @@
       <c r="AH308" t="n">
         <v>0</v>
       </c>
+      <c r="AI308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -33860,6 +34786,9 @@
       <c r="AH309" t="n">
         <v>0</v>
       </c>
+      <c r="AI309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -33968,6 +34897,9 @@
       <c r="AH310" t="n">
         <v>0</v>
       </c>
+      <c r="AI310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -34076,6 +35008,9 @@
       <c r="AH311" t="n">
         <v>0</v>
       </c>
+      <c r="AI311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -34184,6 +35119,9 @@
       <c r="AH312" t="n">
         <v>0</v>
       </c>
+      <c r="AI312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -34292,6 +35230,9 @@
       <c r="AH313" t="n">
         <v>0</v>
       </c>
+      <c r="AI313" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -34400,6 +35341,9 @@
       <c r="AH314" t="n">
         <v>0</v>
       </c>
+      <c r="AI314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -34508,6 +35452,9 @@
       <c r="AH315" t="n">
         <v>0</v>
       </c>
+      <c r="AI315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -34616,6 +35563,9 @@
       <c r="AH316" t="n">
         <v>0</v>
       </c>
+      <c r="AI316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -34724,6 +35674,9 @@
       <c r="AH317" t="n">
         <v>5</v>
       </c>
+      <c r="AI317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -34832,6 +35785,9 @@
       <c r="AH318" t="n">
         <v>5</v>
       </c>
+      <c r="AI318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -34940,6 +35896,9 @@
       <c r="AH319" t="n">
         <v>0</v>
       </c>
+      <c r="AI319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -35048,6 +36007,9 @@
       <c r="AH320" t="n">
         <v>5</v>
       </c>
+      <c r="AI320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -35156,6 +36118,9 @@
       <c r="AH321" t="n">
         <v>0</v>
       </c>
+      <c r="AI321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -35264,6 +36229,9 @@
       <c r="AH322" t="n">
         <v>0</v>
       </c>
+      <c r="AI322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -35372,6 +36340,9 @@
       <c r="AH323" t="n">
         <v>5</v>
       </c>
+      <c r="AI323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -35480,6 +36451,9 @@
       <c r="AH324" t="n">
         <v>5</v>
       </c>
+      <c r="AI324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -35588,6 +36562,9 @@
       <c r="AH325" t="n">
         <v>0</v>
       </c>
+      <c r="AI325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -35696,6 +36673,9 @@
       <c r="AH326" t="n">
         <v>0</v>
       </c>
+      <c r="AI326" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -35804,6 +36784,9 @@
       <c r="AH327" t="n">
         <v>5</v>
       </c>
+      <c r="AI327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -35912,6 +36895,9 @@
       <c r="AH328" t="n">
         <v>0</v>
       </c>
+      <c r="AI328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -36020,6 +37006,9 @@
       <c r="AH329" t="n">
         <v>0</v>
       </c>
+      <c r="AI329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -36128,6 +37117,9 @@
       <c r="AH330" t="n">
         <v>0</v>
       </c>
+      <c r="AI330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -36236,6 +37228,9 @@
       <c r="AH331" t="n">
         <v>0</v>
       </c>
+      <c r="AI331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -36344,6 +37339,9 @@
       <c r="AH332" t="n">
         <v>0</v>
       </c>
+      <c r="AI332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -36452,6 +37450,9 @@
       <c r="AH333" t="n">
         <v>0</v>
       </c>
+      <c r="AI333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -36560,6 +37561,9 @@
       <c r="AH334" t="n">
         <v>0</v>
       </c>
+      <c r="AI334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -36668,6 +37672,9 @@
       <c r="AH335" t="n">
         <v>0</v>
       </c>
+      <c r="AI335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -36776,6 +37783,9 @@
       <c r="AH336" t="n">
         <v>0</v>
       </c>
+      <c r="AI336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -36884,6 +37894,9 @@
       <c r="AH337" t="n">
         <v>0</v>
       </c>
+      <c r="AI337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -36992,6 +38005,9 @@
       <c r="AH338" t="n">
         <v>0</v>
       </c>
+      <c r="AI338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -37100,6 +38116,9 @@
       <c r="AH339" t="n">
         <v>0</v>
       </c>
+      <c r="AI339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -37208,6 +38227,9 @@
       <c r="AH340" t="n">
         <v>0</v>
       </c>
+      <c r="AI340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -37316,6 +38338,9 @@
       <c r="AH341" t="n">
         <v>0</v>
       </c>
+      <c r="AI341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -37424,6 +38449,9 @@
       <c r="AH342" t="n">
         <v>0</v>
       </c>
+      <c r="AI342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -37532,6 +38560,9 @@
       <c r="AH343" t="n">
         <v>0</v>
       </c>
+      <c r="AI343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -37638,6 +38669,9 @@
         <v>0</v>
       </c>
       <c r="AH344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI344" t="n">
         <v>0</v>
       </c>
     </row>
